--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudmappr.sharepoint.com/sites/WorkBreakdownPlanner/Shared Documents/atlas-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{B60B8E41-94DB-452C-8002-B5FBA5F7E6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{256E62C6-C21B-4831-A65F-66F696FE9ECF}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{B60B8E41-94DB-452C-8002-B5FBA5F7E6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243FC990-0833-4C82-AFAB-8D56C9DCF6AC}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-2280" windowWidth="28995" windowHeight="15675" xr2:uid="{FCF27F45-24E2-4A49-A8BF-3589D27E158C}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{FCF27F45-24E2-4A49-A8BF-3589D27E158C}"/>
   </bookViews>
   <sheets>
     <sheet name="wbs2markmap" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="header">_xlfn.ANCHORARRAY(wbs2markmap!$AA$1)</definedName>
+    <definedName name="header">_xlfn.ANCHORARRAY(wbs2markmap!$AB$1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="1406">
   <si>
     <t>level</t>
   </si>
@@ -4254,6 +4254,36 @@
   </si>
   <si>
     <t>📄</t>
+  </si>
+  <si>
+    <t>Atlas Introduction</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Use cases</t>
+  </si>
+  <si>
+    <t>Prrof of Concept</t>
+  </si>
+  <si>
+    <t>Markmap</t>
+  </si>
+  <si>
+    <t>Example Frontmatter</t>
+  </si>
+  <si>
+    <t>Example backmatter</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Bicycle Project</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
 </sst>
 </file>
@@ -4303,20 +4333,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <i/>
@@ -4331,6 +4360,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -4371,25 +4403,28 @@
     <sheetNames>
       <sheetName val="mermaid"/>
       <sheetName val="wbs"/>
+      <sheetName val="wbs_central"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{809D99AA-34D3-47B4-8DD1-891C432CA070}" name="wbsToMarkmap" displayName="wbsToMarkmap" ref="A5:D148" totalsRowShown="0">
-  <autoFilter ref="A5:D148" xr:uid="{809D99AA-34D3-47B4-8DD1-891C432CA070}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{809D99AA-34D3-47B4-8DD1-891C432CA070}" name="wbsToMarkmap" displayName="wbsToMarkmap" ref="A5:E14" totalsRowShown="0">
+  <autoFilter ref="A5:E14" xr:uid="{809D99AA-34D3-47B4-8DD1-891C432CA070}"/>
+  <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{6EA50491-75D2-4607-A201-A43D3E20E6A1}" name="wbsNo" dataDxfId="2">
       <calculatedColumnFormula>IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{7E6ACE22-9A3D-41A9-A01C-5672D65FFD37}" name="level"/>
     <tableColumn id="3" xr3:uid="{89AB4693-72CF-4C95-B953-9928D1B800F4}" name="element"/>
-    <tableColumn id="5" xr3:uid="{AB7A790F-99BC-4AEE-B541-54782451FAF6}" name="markmapMM" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{86410CD8-D651-4138-A854-25EE6332DC33}" name="url"/>
+    <tableColumn id="5" xr3:uid="{AB7A790F-99BC-4AEE-B541-54782451FAF6}" name="markmapMM" dataDxfId="1">
       <calculatedColumnFormula>REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4401,7 +4436,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C87CC84E-D7C2-4E0A-87D2-677915B95FD6}" name="markmapToWbs" displayName="markmapToWbs" ref="A1:C144" totalsRowShown="0">
   <autoFilter ref="A1:C144" xr:uid="{C87CC84E-D7C2-4E0A-87D2-677915B95FD6}"/>
   <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{99F20497-A936-43C7-B029-EBD45C29A9DD}" name="wbsNo" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{99F20497-A936-43C7-B029-EBD45C29A9DD}" name="wbsNo" dataDxfId="0">
       <calculatedColumnFormula>IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{E549C00A-0EBB-4A64-B14D-BEFAE6965DBF}" name="level"/>
@@ -4729,10 +4764,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FF2416-F1C7-4E4B-8034-73269739185A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4740,37 +4775,38 @@
     <col min="1" max="1" width="8.3515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.64453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.5859375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="108.9375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="108.9375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.5859375" customWidth="1"/>
+    <col min="5" max="5" width="108.9375" customWidth="1"/>
+    <col min="7" max="7" width="108.9375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1386</v>
       </c>
       <c r="B1" t="s">
         <v>1389</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>054c5639-22e4-7531-e152-b9ace38815a5</v>
-      </c>
-      <c r="F1" t="s">
+        <v>054c5639-3965-7531-39b7-14d12a237f3b</v>
+      </c>
+      <c r="G1" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>1387</v>
       </c>
       <c r="B2" t="s">
         <v>1395</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>1388</v>
       </c>
@@ -4778,16 +4814,16 @@
         <f>"./atlas"</f>
         <v>./atlas</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="F4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="G4" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4798,13 +4834,16 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E5" t="s">
         <v>1385</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1</v>
@@ -4813,2860 +4852,156 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="str">
+        <v>1396</v>
+      </c>
+      <c r="E6" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v># 1 WBS for MIL-STD-811f Appendix A: Aircraft System[📄](./atlas/054c5639-61a8-7531-3ac9-fa9c361384c2)</v>
-      </c>
-      <c r="F6" t="s">
+        <v># 1 Atlas Introduction[📄](./atlas/054c5639-61a8-7531-1dd3-b607f67eda7a)</v>
+      </c>
+      <c r="G6" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="str">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v/>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="str">
+        <v>1397</v>
+      </c>
+      <c r="E7" s="4" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.1 Aircraft System[📄](./atlas/054c5639-61a8-7531-29dc-edbf65942abc)</v>
-      </c>
-      <c r="F7" t="str" cm="1">
-        <f t="array" aca="1" ref="F7:F149" ca="1">wbsToMarkmap[markmapMM]</f>
-        <v># 1 WBS for MIL-STD-811f Appendix A: Aircraft System[📄](./atlas/054c5639-61a8-7531-3ac9-fa9c361384c2)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="str">
+        <v xml:space="preserve">  Overview[📄](./atlas/054c5639-61a8-7531-a11b-0c4f4fbbeeb5)</v>
+      </c>
+      <c r="G7" t="str" cm="1">
+        <f t="array" aca="1" ref="G7:G15" ca="1">wbsToMarkmap[markmapMM]</f>
+        <v># 1 Atlas Introduction[📄](./atlas/054c5639-61a8-7531-1dd3-b607f67eda7a)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
+        <v/>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="str">
+        <v>1398</v>
+      </c>
+      <c r="E8" s="4" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.2 Air Vehicle[📄](./atlas/054c5639-61a8-7531-8215-6e813c0b02ac)</v>
-      </c>
-      <c r="F8" t="str">
+        <v xml:space="preserve">  Use cases[📄](./atlas/054c5639-61a8-7531-7ecd-cc8c8edbc668)</v>
+      </c>
+      <c r="G8" t="str">
         <f ca="1"/>
-        <v>## 1.1 Aircraft System[📄](./atlas/054c5639-61a8-7531-29dc-edbf65942abc)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="str">
+        <v xml:space="preserve">  Overview[📄](./atlas/054c5639-61a8-7531-a11b-0c4f4fbbeeb5)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.1</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
+        <v/>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="str">
+        <v>1399</v>
+      </c>
+      <c r="E9" s="4" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.2.1 Air Vehicle Integration[📄](./atlas/054c5639-61a8-7531-7dff-8d81c9b180ed)</v>
-      </c>
-      <c r="F9" t="str">
+        <v xml:space="preserve">  Prrof of Concept[📄](./atlas/054c5639-61a8-7531-7246-c2d722dc5216)</v>
+      </c>
+      <c r="G9" t="str">
         <f ca="1"/>
-        <v>## 1.2 Air Vehicle[📄](./atlas/054c5639-61a8-7531-8215-6e813c0b02ac)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="str">
+        <v xml:space="preserve">  Use cases[📄](./atlas/054c5639-61a8-7531-7ecd-cc8c8edbc668)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.2</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
+        <v/>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="str">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="4" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.2.2 Air Frame[📄](./atlas/054c5639-61a8-7531-90c5-1fc23914e067)</v>
-      </c>
-      <c r="F10" t="str">
+        <v xml:space="preserve">  Markmap[📄](./atlas/054c5639-61a8-7531-3101-7009c86d7169)</v>
+      </c>
+      <c r="G10" t="str">
         <f ca="1"/>
-        <v>### 1.2.1 Air Vehicle Integration[📄](./atlas/054c5639-61a8-7531-7dff-8d81c9b180ed)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="str">
+        <v xml:space="preserve">  Prrof of Concept[📄](./atlas/054c5639-61a8-7531-7246-c2d722dc5216)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A11" s="3" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.2.1</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
+        <v/>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="str">
+        <v>1401</v>
+      </c>
+      <c r="E11" s="4" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.2.1 Airframe Integration[📄](./atlas/054c5639-61a8-7531-fa01-c0d952f6ff3d)</v>
-      </c>
-      <c r="F11" t="str">
+        <v xml:space="preserve">  Example Frontmatter[📄](./atlas/054c5639-61a8-7531-73f7-ee18862faa1a)</v>
+      </c>
+      <c r="G11" t="str">
         <f ca="1"/>
-        <v>### 1.2.2 Air Frame[📄](./atlas/054c5639-61a8-7531-90c5-1fc23914e067)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="str">
+        <v xml:space="preserve">  Markmap[📄](./atlas/054c5639-61a8-7531-3101-7009c86d7169)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.2.2</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
+        <v/>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="str">
+        <v>1402</v>
+      </c>
+      <c r="E12" s="4" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.2.2 Fuselage[📄](./atlas/054c5639-61a8-7531-2146-95fe557ebcbb)</v>
-      </c>
-      <c r="F12" t="str">
+        <v xml:space="preserve">  Example backmatter[📄](./atlas/054c5639-61a8-7531-1081-0ac2f2ae3fe3)</v>
+      </c>
+      <c r="G12" t="str">
         <f ca="1"/>
-        <v>#### 1.2.2.1 Airframe Integration[📄](./atlas/054c5639-61a8-7531-fa01-c0d952f6ff3d)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="str">
+        <v xml:space="preserve">  Example Frontmatter[📄](./atlas/054c5639-61a8-7531-73f7-ee18862faa1a)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.2.3</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
+        <v/>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="str">
+        <v>1403</v>
+      </c>
+      <c r="E13" s="4" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.2.3 Wing[📄](./atlas/054c5639-61a8-7531-eac8-985adecbed3d)</v>
-      </c>
-      <c r="F13" t="str">
+        <v xml:space="preserve">  Output[📄](./atlas/054c5639-61a8-7531-648f-3bbf7e9fed7f)</v>
+      </c>
+      <c r="G13" t="str">
         <f ca="1"/>
-        <v>#### 1.2.2.2 Fuselage[📄](./atlas/054c5639-61a8-7531-2146-95fe557ebcbb)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="str">
+        <v xml:space="preserve">  Example backmatter[📄](./atlas/054c5639-61a8-7531-1081-0ac2f2ae3fe3)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A14" s="3" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.2.4</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
+        <v/>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="str">
+        <v>1404</v>
+      </c>
+      <c r="E14" s="4" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.2.4 Empennage[📄](./atlas/054c5639-61a8-7531-8802-f488e78238b2)</v>
-      </c>
-      <c r="F14" t="str">
+        <v xml:space="preserve">  Bicycle Project[📄](./atlas/054c5639-61a8-7531-3443-a421fbd58997)</v>
+      </c>
+      <c r="G14" t="str">
         <f ca="1"/>
-        <v>#### 1.2.2.3 Wing[📄](./atlas/054c5639-61a8-7531-eac8-985adecbed3d)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.2.5</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.2.5 Nacelle[📄](./atlas/054c5639-61a8-7531-532f-dd1218acb221)</v>
-      </c>
-      <c r="F15" t="str">
+        <v xml:space="preserve">  Output[📄](./atlas/054c5639-61a8-7531-648f-3bbf7e9fed7f)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="G15" t="str">
         <f ca="1"/>
-        <v>#### 1.2.2.4 Empennage[📄](./atlas/054c5639-61a8-7531-8802-f488e78238b2)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.2.6</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.2.6 Other Airframe Components 1…n (Specify)[📄](./atlas/054c5639-61a8-7531-7a9b-23bdc55255ab)</v>
-      </c>
-      <c r="F16" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.2.5 Nacelle[📄](./atlas/054c5639-61a8-7531-532f-dd1218acb221)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.3</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.2.3 Propulsion[📄](./atlas/054c5639-61a8-7531-2ac4-454ddc34baed)</v>
-      </c>
-      <c r="F17" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.2.6 Other Airframe Components 1…n (Specify)[📄](./atlas/054c5639-61a8-7531-7a9b-23bdc55255ab)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.2.4 Vehicle Subsystems[📄](./atlas/054c5639-61a8-7531-9f82-ab1272e3da87)</v>
-      </c>
-      <c r="F18" t="str">
-        <f ca="1"/>
-        <v>### 1.2.3 Propulsion[📄](./atlas/054c5639-61a8-7531-2ac4-454ddc34baed)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.1</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.1 Vehicle Subsystem Integration[📄](./atlas/054c5639-61a8-7531-132c-bd8d391d2286)</v>
-      </c>
-      <c r="F19" t="str">
-        <f ca="1"/>
-        <v>### 1.2.4 Vehicle Subsystems[📄](./atlas/054c5639-61a8-7531-9f82-ab1272e3da87)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.2</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.2 Flight Control Subsystem[📄](./atlas/054c5639-61a8-7531-b326-af343407b8ab)</v>
-      </c>
-      <c r="F20" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.1 Vehicle Subsystem Integration[📄](./atlas/054c5639-61a8-7531-132c-bd8d391d2286)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.3</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.3 Auxiliary Power Subsystem[📄](./atlas/054c5639-61a8-7531-3c57-1ccb209c572d)</v>
-      </c>
-      <c r="F21" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.2 Flight Control Subsystem[📄](./atlas/054c5639-61a8-7531-b326-af343407b8ab)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.4</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.4 Hydraulic Subsystem[📄](./atlas/054c5639-61a8-7531-6f51-813725985bab)</v>
-      </c>
-      <c r="F22" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.3 Auxiliary Power Subsystem[📄](./atlas/054c5639-61a8-7531-3c57-1ccb209c572d)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A23" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.5</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.5 Electrical Subsystem[📄](./atlas/054c5639-61a8-7531-0ede-f8e6b6138c0d)</v>
-      </c>
-      <c r="F23" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.4 Hydraulic Subsystem[📄](./atlas/054c5639-61a8-7531-6f51-813725985bab)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.6</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.6 Crew Station Subsystem[📄](./atlas/054c5639-61a8-7531-3de7-83035ac81013)</v>
-      </c>
-      <c r="F24" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.5 Electrical Subsystem[📄](./atlas/054c5639-61a8-7531-0ede-f8e6b6138c0d)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A25" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.7</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.7 Environmental Control Subsystem[📄](./atlas/054c5639-61a8-7531-3c01-2c48f7abb818)</v>
-      </c>
-      <c r="F25" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.6 Crew Station Subsystem[📄](./atlas/054c5639-61a8-7531-3de7-83035ac81013)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A26" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.8</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.8 Fuel Subsystem[📄](./atlas/054c5639-61a8-7531-e5e6-b7d533b2b33c)</v>
-      </c>
-      <c r="F26" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.7 Environmental Control Subsystem[📄](./atlas/054c5639-61a8-7531-3c01-2c48f7abb818)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A27" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.9</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.9 Landing Gear[📄](./atlas/054c5639-61a8-7531-46e8-0142f8eeb01b)</v>
-      </c>
-      <c r="F27" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.8 Fuel Subsystem[📄](./atlas/054c5639-61a8-7531-e5e6-b7d533b2b33c)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.10</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.10 Rotor Group[📄](./atlas/054c5639-61a8-7531-3742-87f1342c2ea3)</v>
-      </c>
-      <c r="F28" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.9 Landing Gear[📄](./atlas/054c5639-61a8-7531-46e8-0142f8eeb01b)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.11</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.11 Drive Group[📄](./atlas/054c5639-61a8-7531-acc1-7ba6d94da1bc)</v>
-      </c>
-      <c r="F29" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.10 Rotor Group[📄](./atlas/054c5639-61a8-7531-3742-87f1342c2ea3)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A30" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.12</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.12 Vehicle Subsystem Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-b047-bf18ba9d773d)</v>
-      </c>
-      <c r="F30" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.11 Drive Group[📄](./atlas/054c5639-61a8-7531-acc1-7ba6d94da1bc)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A31" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.4.13</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.4.13 Other Subsystems 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-fad8-804bb652f06a)</v>
-      </c>
-      <c r="F31" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.12 Vehicle Subsystem Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-b047-bf18ba9d773d)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A32" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.2.5 Avionics[📄](./atlas/054c5639-61a8-7531-ce90-83840b9dbe9e)</v>
-      </c>
-      <c r="F32" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.4.13 Other Subsystems 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-fad8-804bb652f06a)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.1</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.1 Avionics Integration[📄](./atlas/054c5639-61a8-7531-a194-f61a68b1884f)</v>
-      </c>
-      <c r="F33" t="str">
-        <f ca="1"/>
-        <v>### 1.2.5 Avionics[📄](./atlas/054c5639-61a8-7531-ce90-83840b9dbe9e)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.2</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.2 Communication/Identification[📄](./atlas/054c5639-61a8-7531-e29b-d5d084aa317b)</v>
-      </c>
-      <c r="F34" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.1 Avionics Integration[📄](./atlas/054c5639-61a8-7531-a194-f61a68b1884f)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.3</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.3 Navigation/Guidance[📄](./atlas/054c5639-61a8-7531-645c-76022ee446e3)</v>
-      </c>
-      <c r="F35" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.2 Communication/Identification[📄](./atlas/054c5639-61a8-7531-e29b-d5d084aa317b)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.4</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.4 Mission Computer/Processing[📄](./atlas/054c5639-61a8-7531-3a65-19ec8115a1aa)</v>
-      </c>
-      <c r="F36" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.3 Navigation/Guidance[📄](./atlas/054c5639-61a8-7531-645c-76022ee446e3)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.5</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.5 Fire Control[📄](./atlas/054c5639-61a8-7531-56f1-6442363c650b)</v>
-      </c>
-      <c r="F37" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.4 Mission Computer/Processing[📄](./atlas/054c5639-61a8-7531-3a65-19ec8115a1aa)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.6</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.6 Data Display and Controls[📄](./atlas/054c5639-61a8-7531-8369-7858bdff3ffe)</v>
-      </c>
-      <c r="F38" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.5 Fire Control[📄](./atlas/054c5639-61a8-7531-56f1-6442363c650b)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A39" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.7</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.7 Survivability[📄](./atlas/054c5639-61a8-7531-1891-5e327467fb69)</v>
-      </c>
-      <c r="F39" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.6 Data Display and Controls[📄](./atlas/054c5639-61a8-7531-8369-7858bdff3ffe)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.8</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.8 Reconnaissance[📄](./atlas/054c5639-61a8-7531-a9dd-29e137d91c44)</v>
-      </c>
-      <c r="F40" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.7 Survivability[📄](./atlas/054c5639-61a8-7531-1891-5e327467fb69)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.9</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.9 Electronic Warfare[📄](./atlas/054c5639-61a8-7531-c900-09576ea551e5)</v>
-      </c>
-      <c r="F41" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.8 Reconnaissance[📄](./atlas/054c5639-61a8-7531-a9dd-29e137d91c44)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.10</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.10 Automatic Flight Control[📄](./atlas/054c5639-61a8-7531-4996-8ad6bb1e3559)</v>
-      </c>
-      <c r="F42" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.9 Electronic Warfare[📄](./atlas/054c5639-61a8-7531-c900-09576ea551e5)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A43" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.11</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.11 Health Monitoring System[📄](./atlas/054c5639-61a8-7531-fbf0-d50c243215b5)</v>
-      </c>
-      <c r="F43" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.10 Automatic Flight Control[📄](./atlas/054c5639-61a8-7531-4996-8ad6bb1e3559)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A44" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.12</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.12 Stores Management[📄](./atlas/054c5639-61a8-7531-edae-57baf3455ffe)</v>
-      </c>
-      <c r="F44" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.11 Health Monitoring System[📄](./atlas/054c5639-61a8-7531-fbf0-d50c243215b5)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A45" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.13</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.13 Avionics Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-0ba8-daa1ba4d2e52)</v>
-      </c>
-      <c r="F45" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.12 Stores Management[📄](./atlas/054c5639-61a8-7531-edae-57baf3455ffe)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A46" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.5.14</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.2.5.14 Other Avionics Subsystems 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-7487-99eb3520f110)</v>
-      </c>
-      <c r="F46" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.13 Avionics Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-0ba8-daa1ba4d2e52)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A47" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.6</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.2.6 Armament/Weapons Delivery[📄](./atlas/054c5639-61a8-7531-b267-e4e80d83f5d2)</v>
-      </c>
-      <c r="F47" t="str">
-        <f ca="1"/>
-        <v>#### 1.2.5.14 Other Avionics Subsystems 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-7487-99eb3520f110)</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A48" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.7</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.2.7 Auxiliary Equipment[📄](./atlas/054c5639-61a8-7531-5ac3-afd63c7ce3a8)</v>
-      </c>
-      <c r="F48" t="str">
-        <f ca="1"/>
-        <v>### 1.2.6 Armament/Weapons Delivery[📄](./atlas/054c5639-61a8-7531-b267-e4e80d83f5d2)</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A49" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.8</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.2.8 Furnishings and Equipment[📄](./atlas/054c5639-61a8-7531-2585-f11cffd25ea1)</v>
-      </c>
-      <c r="F49" t="str">
-        <f ca="1"/>
-        <v>### 1.2.7 Auxiliary Equipment[📄](./atlas/054c5639-61a8-7531-5ac3-afd63c7ce3a8)</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A50" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.9</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.2.9 Air Vehicle Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-9e53-e4a97603014e)</v>
-      </c>
-      <c r="F50" t="str">
-        <f ca="1"/>
-        <v>### 1.2.8 Furnishings and Equipment[📄](./atlas/054c5639-61a8-7531-2585-f11cffd25ea1)</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A51" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.2.10</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.2.10 Other Air Vehicle 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-57c8-371c4c0a3328)</v>
-      </c>
-      <c r="F51" t="str">
-        <f ca="1"/>
-        <v>### 1.2.9 Air Vehicle Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-9e53-e4a97603014e)</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A52" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.3</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.3 Payload/Mission System[📄](./atlas/054c5639-61a8-7531-f926-d72e7ed3f419)</v>
-      </c>
-      <c r="F52" t="str">
-        <f ca="1"/>
-        <v>### 1.2.10 Other Air Vehicle 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-57c8-371c4c0a3328)</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A53" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.3.1</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.3.1 Payload Integration[📄](./atlas/054c5639-61a8-7531-a715-62b48b40f6e1)</v>
-      </c>
-      <c r="F53" t="str">
-        <f ca="1"/>
-        <v>## 1.3 Payload/Mission System[📄](./atlas/054c5639-61a8-7531-f926-d72e7ed3f419)</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A54" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.3.2</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.3.2 Survivability Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-7f23-739edaf98bbd)</v>
-      </c>
-      <c r="F54" t="str">
-        <f ca="1"/>
-        <v>### 1.3.1 Payload Integration[📄](./atlas/054c5639-61a8-7531-a715-62b48b40f6e1)</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A55" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.3.3</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.3.3 Reconnaissance Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-448c-ff1f79149b3b)</v>
-      </c>
-      <c r="F55" t="str">
-        <f ca="1"/>
-        <v>### 1.3.2 Survivability Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-7f23-739edaf98bbd)</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A56" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.3.4</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.3.4 Electronic Warfare Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-eeec-fcae4941805e)</v>
-      </c>
-      <c r="F56" t="str">
-        <f ca="1"/>
-        <v>### 1.3.3 Reconnaissance Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-448c-ff1f79149b3b)</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A57" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.3.5</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.3.5 Armament/Weapons Delivery Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-2145-a364e62c46b5)</v>
-      </c>
-      <c r="F57" t="str">
-        <f ca="1"/>
-        <v>### 1.3.4 Electronic Warfare Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-eeec-fcae4941805e)</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A58" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.3.6</v>
-      </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.3.6 Payload Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-05ed-8a2e9fcc8fb7)</v>
-      </c>
-      <c r="F58" t="str">
-        <f ca="1"/>
-        <v>### 1.3.5 Armament/Weapons Delivery Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-2145-a364e62c46b5)</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A59" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.3.7</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.3.7 Other Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-a98b-75c22a29ce68)</v>
-      </c>
-      <c r="F59" t="str">
-        <f ca="1"/>
-        <v>### 1.3.6 Payload Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-05ed-8a2e9fcc8fb7)</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A60" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.4</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.4 Ground/Host Segment[📄](./atlas/054c5639-61a8-7531-c4b5-2017a428ee7e)</v>
-      </c>
-      <c r="F60" t="str">
-        <f ca="1"/>
-        <v>### 1.3.7 Other Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-a98b-75c22a29ce68)</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A61" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.4.1</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.4.1 Ground Segment Integration[📄](./atlas/054c5639-61a8-7531-791a-55a371f76720)</v>
-      </c>
-      <c r="F61" t="str">
-        <f ca="1"/>
-        <v>## 1.4 Ground/Host Segment[📄](./atlas/054c5639-61a8-7531-c4b5-2017a428ee7e)</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A62" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.4.2</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.4.2 Ground Control Systems[📄](./atlas/054c5639-61a8-7531-21b4-ef6515d42742)</v>
-      </c>
-      <c r="F62" t="str">
-        <f ca="1"/>
-        <v>### 1.4.1 Ground Segment Integration[📄](./atlas/054c5639-61a8-7531-791a-55a371f76720)</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A63" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.4.3</v>
-      </c>
-      <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.4.3 Command and Control Subsystem[📄](./atlas/054c5639-61a8-7531-27f5-43dc86035994)</v>
-      </c>
-      <c r="F63" t="str">
-        <f ca="1"/>
-        <v>### 1.4.2 Ground Control Systems[📄](./atlas/054c5639-61a8-7531-21b4-ef6515d42742)</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A64" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.4.4</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.4.4 Launch Equipment[📄](./atlas/054c5639-61a8-7531-685c-75524b08004e)</v>
-      </c>
-      <c r="F64" t="str">
-        <f ca="1"/>
-        <v>### 1.4.3 Command and Control Subsystem[📄](./atlas/054c5639-61a8-7531-27f5-43dc86035994)</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A65" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.4.5</v>
-      </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.4.5 Recovery Equipment[📄](./atlas/054c5639-61a8-7531-2d61-1e5da0914570)</v>
-      </c>
-      <c r="F65" t="str">
-        <f ca="1"/>
-        <v>### 1.4.4 Launch Equipment[📄](./atlas/054c5639-61a8-7531-685c-75524b08004e)</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A66" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.4.6</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.4.6 Transport Vehicles[📄](./atlas/054c5639-61a8-7531-f292-5ae7ffbc8cfb)</v>
-      </c>
-      <c r="F66" t="str">
-        <f ca="1"/>
-        <v>### 1.4.5 Recovery Equipment[📄](./atlas/054c5639-61a8-7531-2d61-1e5da0914570)</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A67" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.4.7</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.4.7 Ground Segment Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-0123-97e56247e1f5)</v>
-      </c>
-      <c r="F67" t="str">
-        <f ca="1"/>
-        <v>### 1.4.6 Transport Vehicles[📄](./atlas/054c5639-61a8-7531-f292-5ae7ffbc8cfb)</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A68" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.4.8</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.4.8 Other Ground/Host Segment 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-caea-e97ae5a2492c)</v>
-      </c>
-      <c r="F68" t="str">
-        <f ca="1"/>
-        <v>### 1.4.7 Ground Segment Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-0123-97e56247e1f5)</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A69" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.5</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.5 Aircraft System Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-8a2d-f79213c25193)</v>
-      </c>
-      <c r="F69" t="str">
-        <f ca="1"/>
-        <v>### 1.4.8 Other Ground/Host Segment 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-caea-e97ae5a2492c)</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A70" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.6</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.6 Systems Engineering[📄](./atlas/054c5639-61a8-7531-358a-b0298f74eedc)</v>
-      </c>
-      <c r="F70" t="str">
-        <f ca="1"/>
-        <v>## 1.5 Aircraft System Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-8a2d-f79213c25193)</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A71" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.6.1</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.6.1 Software Systems Engineering[📄](./atlas/054c5639-61a8-7531-cca3-bb8ede86ed82)</v>
-      </c>
-      <c r="F71" t="str">
-        <f ca="1"/>
-        <v>## 1.6 Systems Engineering[📄](./atlas/054c5639-61a8-7531-358a-b0298f74eedc)</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A72" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.6.2</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.6.2 Integrated Logistics Support (ILS) Systems Engineering[📄](./atlas/054c5639-61a8-7531-a509-6114cdcbb898)</v>
-      </c>
-      <c r="F72" t="str">
-        <f ca="1"/>
-        <v>### 1.6.1 Software Systems Engineering[📄](./atlas/054c5639-61a8-7531-cca3-bb8ede86ed82)</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A73" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.6.3</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.6.3 Cybersecurity Systems Engineering[📄](./atlas/054c5639-61a8-7531-86b7-4c0cacfc2ff0)</v>
-      </c>
-      <c r="F73" t="str">
-        <f ca="1"/>
-        <v>### 1.6.2 Integrated Logistics Support (ILS) Systems Engineering[📄](./atlas/054c5639-61a8-7531-a509-6114cdcbb898)</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A74" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.6.4</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.6.4 Core Systems Engineering[📄](./atlas/054c5639-61a8-7531-ba87-405791d61532)</v>
-      </c>
-      <c r="F74" t="str">
-        <f ca="1"/>
-        <v>### 1.6.3 Cybersecurity Systems Engineering[📄](./atlas/054c5639-61a8-7531-86b7-4c0cacfc2ff0)</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A75" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.6.5</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.6.5 Other Systems Engineering 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-21d6-aca20134a46a)</v>
-      </c>
-      <c r="F75" t="str">
-        <f ca="1"/>
-        <v>### 1.6.4 Core Systems Engineering[📄](./atlas/054c5639-61a8-7531-ba87-405791d61532)</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A76" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.7</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
-      <c r="C76" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.7 Program Management[📄](./atlas/054c5639-61a8-7531-31bd-37aab8947833)</v>
-      </c>
-      <c r="F76" t="str">
-        <f ca="1"/>
-        <v>### 1.6.5 Other Systems Engineering 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-21d6-aca20134a46a)</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A77" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.7.1</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.7.1 Software Program Management[📄](./atlas/054c5639-61a8-7531-28c9-2fea9e5a1162)</v>
-      </c>
-      <c r="F77" t="str">
-        <f ca="1"/>
-        <v>## 1.7 Program Management[📄](./atlas/054c5639-61a8-7531-31bd-37aab8947833)</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A78" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.7.2</v>
-      </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>75</v>
-      </c>
-      <c r="D78" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.7.2 Integrated Logistics Support (ILS) Program Management[📄](./atlas/054c5639-61a8-7531-5fe0-47976d32f2f2)</v>
-      </c>
-      <c r="F78" t="str">
-        <f ca="1"/>
-        <v>### 1.7.1 Software Program Management[📄](./atlas/054c5639-61a8-7531-28c9-2fea9e5a1162)</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A79" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.7.3</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.7.3 Cybersecurity Management[📄](./atlas/054c5639-61a8-7531-c6c5-92c78a030474)</v>
-      </c>
-      <c r="F79" t="str">
-        <f ca="1"/>
-        <v>### 1.7.2 Integrated Logistics Support (ILS) Program Management[📄](./atlas/054c5639-61a8-7531-5fe0-47976d32f2f2)</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A80" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.7.4</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D80" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.7.4 Core Program Management[📄](./atlas/054c5639-61a8-7531-52b8-62d594fd1dfe)</v>
-      </c>
-      <c r="F80" t="str">
-        <f ca="1"/>
-        <v>### 1.7.3 Cybersecurity Management[📄](./atlas/054c5639-61a8-7531-c6c5-92c78a030474)</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A81" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.7.5</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.7.5 Other Program Management 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-e80e-7f90288eb82d)</v>
-      </c>
-      <c r="F81" t="str">
-        <f ca="1"/>
-        <v>### 1.7.4 Core Program Management[📄](./atlas/054c5639-61a8-7531-52b8-62d594fd1dfe)</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A82" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.8 System Test and Evaluation[📄](./atlas/054c5639-61a8-7531-8e34-32e89b04ead0)</v>
-      </c>
-      <c r="F82" t="str">
-        <f ca="1"/>
-        <v>### 1.7.5 Other Program Management 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-e80e-7f90288eb82d)</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A83" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.1</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.8.1 Developmental Test and Evaluation[📄](./atlas/054c5639-61a8-7531-fefc-fa3715e7c451)</v>
-      </c>
-      <c r="F83" t="str">
-        <f ca="1"/>
-        <v>## 1.8 System Test and Evaluation[📄](./atlas/054c5639-61a8-7531-8e34-32e89b04ead0)</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A84" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.1.1</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.1.1 System Acceptance Test[📄](./atlas/054c5639-61a8-7531-fc35-327d67b73b3b)</v>
-      </c>
-      <c r="F84" t="str">
-        <f ca="1"/>
-        <v>### 1.8.1 Developmental Test and Evaluation[📄](./atlas/054c5639-61a8-7531-fefc-fa3715e7c451)</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A85" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.1.2</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.1.2 Wind Tunnel Tests[📄](./atlas/054c5639-61a8-7531-c431-b2e241a5f1f2)</v>
-      </c>
-      <c r="F85" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.1.1 System Acceptance Test[📄](./atlas/054c5639-61a8-7531-fc35-327d67b73b3b)</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A86" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.1.3</v>
-      </c>
-      <c r="B86">
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.1.3 Structural Tests[📄](./atlas/054c5639-61a8-7531-7133-8170c1587cdd)</v>
-      </c>
-      <c r="F86" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.1.2 Wind Tunnel Tests[📄](./atlas/054c5639-61a8-7531-c431-b2e241a5f1f2)</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A87" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.1.4</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="C87" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.1.4 Flight Tests[📄](./atlas/054c5639-61a8-7531-f205-393ed89cb7a2)</v>
-      </c>
-      <c r="F87" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.1.3 Structural Tests[📄](./atlas/054c5639-61a8-7531-7133-8170c1587cdd)</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A88" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.1.5</v>
-      </c>
-      <c r="B88">
-        <v>4</v>
-      </c>
-      <c r="C88" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.1.5 Ground Tests[📄](./atlas/054c5639-61a8-7531-2732-c69ba2a9a0ef)</v>
-      </c>
-      <c r="F88" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.1.4 Flight Tests[📄](./atlas/054c5639-61a8-7531-f205-393ed89cb7a2)</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A89" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.1.6</v>
-      </c>
-      <c r="B89">
-        <v>4</v>
-      </c>
-      <c r="C89" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.1.6 Cybersecurity Test and Evaluation[📄](./atlas/054c5639-61a8-7531-f63d-fba60892f22a)</v>
-      </c>
-      <c r="F89" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.1.5 Ground Tests[📄](./atlas/054c5639-61a8-7531-2732-c69ba2a9a0ef)</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A90" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.1.7</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.1.7 Other DT&amp;E Tests 1…n (Specify)[📄](./atlas/054c5639-61a8-7531-d994-b86baf9f1e72)</v>
-      </c>
-      <c r="F90" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.1.6 Cybersecurity Test and Evaluation[📄](./atlas/054c5639-61a8-7531-f63d-fba60892f22a)</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A91" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.2</v>
-      </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>88</v>
-      </c>
-      <c r="D91" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.8.2 Operational Test and Evaluation[📄](./atlas/054c5639-61a8-7531-3b11-ddfcf0646a92)</v>
-      </c>
-      <c r="F91" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.1.7 Other DT&amp;E Tests 1…n (Specify)[📄](./atlas/054c5639-61a8-7531-d994-b86baf9f1e72)</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A92" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.2.1</v>
-      </c>
-      <c r="B92">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
-        <v>89</v>
-      </c>
-      <c r="D92" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.2.1 Limited User Evaluation (LUE/M-LUT/FUE)[📄](./atlas/054c5639-61a8-7531-4b9d-b5478fb859b1)</v>
-      </c>
-      <c r="F92" t="str">
-        <f ca="1"/>
-        <v>### 1.8.2 Operational Test and Evaluation[📄](./atlas/054c5639-61a8-7531-3b11-ddfcf0646a92)</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A93" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.2.2</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
-      <c r="C93" t="s">
-        <v>90</v>
-      </c>
-      <c r="D93" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.2.2 Interoperability Testing[📄](./atlas/054c5639-61a8-7531-573f-09e1c8987c53)</v>
-      </c>
-      <c r="F93" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.2.1 Limited User Evaluation (LUE/M-LUT/FUE)[📄](./atlas/054c5639-61a8-7531-4b9d-b5478fb859b1)</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A94" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.2.3</v>
-      </c>
-      <c r="B94">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s">
-        <v>84</v>
-      </c>
-      <c r="D94" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.2.3 Flight Tests[📄](./atlas/054c5639-61a8-7531-6c70-3eb8dfd89ab3)</v>
-      </c>
-      <c r="F94" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.2.2 Interoperability Testing[📄](./atlas/054c5639-61a8-7531-573f-09e1c8987c53)</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A95" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.2.4</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.2.4 Ground Tests[📄](./atlas/054c5639-61a8-7531-7ede-8ad246063c35)</v>
-      </c>
-      <c r="F95" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.2.3 Flight Tests[📄](./atlas/054c5639-61a8-7531-6c70-3eb8dfd89ab3)</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A96" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.2.5</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96" t="s">
-        <v>86</v>
-      </c>
-      <c r="D96" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.2.5 Cybersecurity Test and Evaluation[📄](./atlas/054c5639-61a8-7531-2b23-f67fa2134201)</v>
-      </c>
-      <c r="F96" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.2.4 Ground Tests[📄](./atlas/054c5639-61a8-7531-7ede-8ad246063c35)</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A97" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.2.6</v>
-      </c>
-      <c r="B97">
-        <v>4</v>
-      </c>
-      <c r="C97" t="s">
-        <v>91</v>
-      </c>
-      <c r="D97" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.8.2.6 Other OT&amp;E Tests 1…n (Specify)[📄](./atlas/054c5639-61a8-7531-cfb6-7eca255033ef)</v>
-      </c>
-      <c r="F97" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.2.5 Cybersecurity Test and Evaluation[📄](./atlas/054c5639-61a8-7531-2b23-f67fa2134201)</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A98" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.3</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.8.3 Live Fire Test and Evaluation[📄](./atlas/054c5639-61a8-7531-76a1-b68b71dba308)</v>
-      </c>
-      <c r="F98" t="str">
-        <f ca="1"/>
-        <v>#### 1.8.2.6 Other OT&amp;E Tests 1…n (Specify)[📄](./atlas/054c5639-61a8-7531-cfb6-7eca255033ef)</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A99" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.4</v>
-      </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>93</v>
-      </c>
-      <c r="D99" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.8.4 Mock-ups/System Integration Labs (SILs)[📄](./atlas/054c5639-61a8-7531-c3eb-17576ebc8628)</v>
-      </c>
-      <c r="F99" t="str">
-        <f ca="1"/>
-        <v>### 1.8.3 Live Fire Test and Evaluation[📄](./atlas/054c5639-61a8-7531-76a1-b68b71dba308)</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A100" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.5</v>
-      </c>
-      <c r="B100">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
-        <v>94</v>
-      </c>
-      <c r="D100" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.8.5 Test and Evaluation Support[📄](./atlas/054c5639-61a8-7531-4832-3a043b66d3a0)</v>
-      </c>
-      <c r="F100" t="str">
-        <f ca="1"/>
-        <v>### 1.8.4 Mock-ups/System Integration Labs (SILs)[📄](./atlas/054c5639-61a8-7531-c3eb-17576ebc8628)</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A101" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.8.6</v>
-      </c>
-      <c r="B101">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>95</v>
-      </c>
-      <c r="D101" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.8.6 Test Facilities[📄](./atlas/054c5639-61a8-7531-c313-ad9f0457e3d1)</v>
-      </c>
-      <c r="F101" t="str">
-        <f ca="1"/>
-        <v>### 1.8.5 Test and Evaluation Support[📄](./atlas/054c5639-61a8-7531-4832-3a043b66d3a0)</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A102" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.9</v>
-      </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>96</v>
-      </c>
-      <c r="D102" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.9 Training[📄](./atlas/054c5639-61a8-7531-9e2b-8806b840946f)</v>
-      </c>
-      <c r="F102" t="str">
-        <f ca="1"/>
-        <v>### 1.8.6 Test Facilities[📄](./atlas/054c5639-61a8-7531-c313-ad9f0457e3d1)</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A103" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.9.1</v>
-      </c>
-      <c r="B103">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
-        <v>97</v>
-      </c>
-      <c r="D103" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.9.1 Equipment[📄](./atlas/054c5639-61a8-7531-2a9f-66dbbeadc97d)</v>
-      </c>
-      <c r="F103" t="str">
-        <f ca="1"/>
-        <v>## 1.9 Training[📄](./atlas/054c5639-61a8-7531-9e2b-8806b840946f)</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A104" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.9.1.1</v>
-      </c>
-      <c r="B104">
-        <v>4</v>
-      </c>
-      <c r="C104" t="s">
-        <v>98</v>
-      </c>
-      <c r="D104" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.9.1.1 Operator Instructional Equipment[📄](./atlas/054c5639-61a8-7531-f4c9-905d830bd0b4)</v>
-      </c>
-      <c r="F104" t="str">
-        <f ca="1"/>
-        <v>### 1.9.1 Equipment[📄](./atlas/054c5639-61a8-7531-2a9f-66dbbeadc97d)</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A105" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.9.1.2</v>
-      </c>
-      <c r="B105">
-        <v>4</v>
-      </c>
-      <c r="C105" t="s">
-        <v>99</v>
-      </c>
-      <c r="D105" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.9.1.2 Maintainer Instructional Equipment[📄](./atlas/054c5639-61a8-7531-8ff9-2a35d4a3bf21)</v>
-      </c>
-      <c r="F105" t="str">
-        <f ca="1"/>
-        <v>#### 1.9.1.1 Operator Instructional Equipment[📄](./atlas/054c5639-61a8-7531-f4c9-905d830bd0b4)</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A106" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.9.1.3</v>
-      </c>
-      <c r="B106">
-        <v>4</v>
-      </c>
-      <c r="C106" t="s">
-        <v>100</v>
-      </c>
-      <c r="D106" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.9.1.3 Services[📄](./atlas/054c5639-61a8-7531-d540-cd7e4cb3890b)</v>
-      </c>
-      <c r="F106" t="str">
-        <f ca="1"/>
-        <v>#### 1.9.1.2 Maintainer Instructional Equipment[📄](./atlas/054c5639-61a8-7531-8ff9-2a35d4a3bf21)</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A107" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.9.1.4</v>
-      </c>
-      <c r="B107">
-        <v>4</v>
-      </c>
-      <c r="C107" t="s">
-        <v>101</v>
-      </c>
-      <c r="D107" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.9.1.4 Operator Instructional Services[📄](./atlas/054c5639-61a8-7531-c0d1-c5125a5721e1)</v>
-      </c>
-      <c r="F107" t="str">
-        <f ca="1"/>
-        <v>#### 1.9.1.3 Services[📄](./atlas/054c5639-61a8-7531-d540-cd7e4cb3890b)</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A108" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.9.1.5</v>
-      </c>
-      <c r="B108">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
-        <v>102</v>
-      </c>
-      <c r="D108" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.9.1.5 Maintainer Instructional Services[📄](./atlas/054c5639-61a8-7531-6f3e-84b9b3b6ede9)</v>
-      </c>
-      <c r="F108" t="str">
-        <f ca="1"/>
-        <v>#### 1.9.1.4 Operator Instructional Services[📄](./atlas/054c5639-61a8-7531-c0d1-c5125a5721e1)</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A109" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.9.2</v>
-      </c>
-      <c r="B109">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
-        <v>103</v>
-      </c>
-      <c r="D109" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.9.2 Facilities[📄](./atlas/054c5639-61a8-7531-f527-03bab8ab3fff)</v>
-      </c>
-      <c r="F109" t="str">
-        <f ca="1"/>
-        <v>#### 1.9.1.5 Maintainer Instructional Services[📄](./atlas/054c5639-61a8-7531-6f3e-84b9b3b6ede9)</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A110" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.9.3</v>
-      </c>
-      <c r="B110">
-        <v>3</v>
-      </c>
-      <c r="C110" t="s">
-        <v>104</v>
-      </c>
-      <c r="D110" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.9.3 Training Software 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-3a46-21142bffa083)</v>
-      </c>
-      <c r="F110" t="str">
-        <f ca="1"/>
-        <v>### 1.9.2 Facilities[📄](./atlas/054c5639-61a8-7531-f527-03bab8ab3fff)</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A111" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.10</v>
-      </c>
-      <c r="B111">
-        <v>2</v>
-      </c>
-      <c r="C111" t="s">
-        <v>105</v>
-      </c>
-      <c r="D111" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.10 Data[📄](./atlas/054c5639-61a8-7531-bee2-1763bd71dd5e)</v>
-      </c>
-      <c r="F111" t="str">
-        <f ca="1"/>
-        <v>### 1.9.3 Training Software 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-3a46-21142bffa083)</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A112" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.10.1</v>
-      </c>
-      <c r="B112">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s">
-        <v>106</v>
-      </c>
-      <c r="D112" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.10.1 Data Deliverables 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-e7ee-1a0a450d32ae)</v>
-      </c>
-      <c r="F112" t="str">
-        <f ca="1"/>
-        <v>## 1.10 Data[📄](./atlas/054c5639-61a8-7531-bee2-1763bd71dd5e)</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A113" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.10.2</v>
-      </c>
-      <c r="B113">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
-        <v>107</v>
-      </c>
-      <c r="D113" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.10.2 Data Repository[📄](./atlas/054c5639-61a8-7531-6801-d99e6d278fbe)</v>
-      </c>
-      <c r="F113" t="str">
-        <f ca="1"/>
-        <v>### 1.10.1 Data Deliverables 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-e7ee-1a0a450d32ae)</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A114" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.10.3</v>
-      </c>
-      <c r="B114">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
-        <v>108</v>
-      </c>
-      <c r="D114" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.10.3 Data Rights 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-f7f2-a287d64b597a)</v>
-      </c>
-      <c r="F114" t="str">
-        <f ca="1"/>
-        <v>### 1.10.2 Data Repository[📄](./atlas/054c5639-61a8-7531-6801-d99e6d278fbe)</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A115" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.11</v>
-      </c>
-      <c r="B115">
-        <v>2</v>
-      </c>
-      <c r="C115" t="s">
-        <v>109</v>
-      </c>
-      <c r="D115" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.11 Peculiar Support Equipment[📄](./atlas/054c5639-61a8-7531-8850-89a1c9f99257)</v>
-      </c>
-      <c r="F115" t="str">
-        <f ca="1"/>
-        <v>### 1.10.3 Data Rights 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-f7f2-a287d64b597a)</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A116" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.11.1</v>
-      </c>
-      <c r="B116">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s">
-        <v>110</v>
-      </c>
-      <c r="D116" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.11.1 Test and Measurement Equipment[📄](./atlas/054c5639-61a8-7531-7f01-a7b6c1a62a12)</v>
-      </c>
-      <c r="F116" t="str">
-        <f ca="1"/>
-        <v>## 1.11 Peculiar Support Equipment[📄](./atlas/054c5639-61a8-7531-8850-89a1c9f99257)</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A117" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.11.1.1</v>
-      </c>
-      <c r="B117">
-        <v>4</v>
-      </c>
-      <c r="C117" t="s">
-        <v>111</v>
-      </c>
-      <c r="D117" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.11.1.1 Test and Measurement Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-4a2c-432acb12e468)</v>
-      </c>
-      <c r="F117" t="str">
-        <f ca="1"/>
-        <v>### 1.11.1 Test and Measurement Equipment[📄](./atlas/054c5639-61a8-7531-7f01-a7b6c1a62a12)</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A118" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.11.1.2</v>
-      </c>
-      <c r="B118">
-        <v>4</v>
-      </c>
-      <c r="C118" t="s">
-        <v>112</v>
-      </c>
-      <c r="D118" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.11.1.2 Test and Measurement Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-5311-34467a448d88)</v>
-      </c>
-      <c r="F118" t="str">
-        <f ca="1"/>
-        <v>#### 1.11.1.1 Test and Measurement Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-4a2c-432acb12e468)</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A119" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.11.1.3</v>
-      </c>
-      <c r="B119">
-        <v>4</v>
-      </c>
-      <c r="C119" t="s">
-        <v>113</v>
-      </c>
-      <c r="D119" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.11.1.3 Test and Measurement Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-44f9-7f7782e4325b)</v>
-      </c>
-      <c r="F119" t="str">
-        <f ca="1"/>
-        <v>#### 1.11.1.2 Test and Measurement Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-5311-34467a448d88)</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A120" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.11.1.4</v>
-      </c>
-      <c r="B120">
-        <v>4</v>
-      </c>
-      <c r="C120" t="s">
-        <v>114</v>
-      </c>
-      <c r="D120" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.11.1.4 Test and Measurement Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-546a-3baad20b8909)</v>
-      </c>
-      <c r="F120" t="str">
-        <f ca="1"/>
-        <v>#### 1.11.1.3 Test and Measurement Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-44f9-7f7782e4325b)</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A121" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.11.2</v>
-      </c>
-      <c r="B121">
-        <v>3</v>
-      </c>
-      <c r="C121" t="s">
-        <v>115</v>
-      </c>
-      <c r="D121" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.11.2 Support and Handling Equipment[📄](./atlas/054c5639-61a8-7531-0aae-cf314b5bb759)</v>
-      </c>
-      <c r="F121" t="str">
-        <f ca="1"/>
-        <v>#### 1.11.1.4 Test and Measurement Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-546a-3baad20b8909)</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A122" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.11.2.1</v>
-      </c>
-      <c r="B122">
-        <v>4</v>
-      </c>
-      <c r="C122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D122" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.11.2.1 Support and Handling Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-b23a-88419affe856)</v>
-      </c>
-      <c r="F122" t="str">
-        <f ca="1"/>
-        <v>### 1.11.2 Support and Handling Equipment[📄](./atlas/054c5639-61a8-7531-0aae-cf314b5bb759)</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A123" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.11.2.2</v>
-      </c>
-      <c r="B123">
-        <v>4</v>
-      </c>
-      <c r="C123" t="s">
-        <v>117</v>
-      </c>
-      <c r="D123" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.11.2.2 Support and Handling Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-9746-8490bcc0b79e)</v>
-      </c>
-      <c r="F123" t="str">
-        <f ca="1"/>
-        <v>#### 1.11.2.1 Support and Handling Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-b23a-88419affe856)</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A124" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.11.2.3</v>
-      </c>
-      <c r="B124">
-        <v>4</v>
-      </c>
-      <c r="C124" t="s">
-        <v>118</v>
-      </c>
-      <c r="D124" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.11.2.3 Support and Handling Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-97ba-5f64dd0c58a5)</v>
-      </c>
-      <c r="F124" t="str">
-        <f ca="1"/>
-        <v>#### 1.11.2.2 Support and Handling Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-9746-8490bcc0b79e)</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A125" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.11.2.4</v>
-      </c>
-      <c r="B125">
-        <v>4</v>
-      </c>
-      <c r="C125" t="s">
-        <v>119</v>
-      </c>
-      <c r="D125" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.11.2.4 Support and Handling Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-e5b0-3fc222d232ec)</v>
-      </c>
-      <c r="F125" t="str">
-        <f ca="1"/>
-        <v>#### 1.11.2.3 Support and Handling Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-97ba-5f64dd0c58a5)</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A126" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.12</v>
-      </c>
-      <c r="B126">
-        <v>2</v>
-      </c>
-      <c r="C126" t="s">
-        <v>120</v>
-      </c>
-      <c r="D126" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.12 Common Support Equipment[📄](./atlas/054c5639-61a8-7531-5f84-d621f6cb7ae1)</v>
-      </c>
-      <c r="F126" t="str">
-        <f ca="1"/>
-        <v>#### 1.11.2.4 Support and Handling Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-e5b0-3fc222d232ec)</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A127" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.12.1</v>
-      </c>
-      <c r="B127">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
-        <v>110</v>
-      </c>
-      <c r="D127" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.12.1 Test and Measurement Equipment[📄](./atlas/054c5639-61a8-7531-f163-15c75d0311dd)</v>
-      </c>
-      <c r="F127" t="str">
-        <f ca="1"/>
-        <v>## 1.12 Common Support Equipment[📄](./atlas/054c5639-61a8-7531-5f84-d621f6cb7ae1)</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A128" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.12.1.1</v>
-      </c>
-      <c r="B128">
-        <v>4</v>
-      </c>
-      <c r="C128" t="s">
-        <v>111</v>
-      </c>
-      <c r="D128" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.12.1.1 Test and Measurement Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-32a8-f615e9f0498e)</v>
-      </c>
-      <c r="F128" t="str">
-        <f ca="1"/>
-        <v>### 1.12.1 Test and Measurement Equipment[📄](./atlas/054c5639-61a8-7531-f163-15c75d0311dd)</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A129" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.12.1.2</v>
-      </c>
-      <c r="B129">
-        <v>4</v>
-      </c>
-      <c r="C129" t="s">
-        <v>112</v>
-      </c>
-      <c r="D129" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.12.1.2 Test and Measurement Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-f54a-2774d5240c9b)</v>
-      </c>
-      <c r="F129" t="str">
-        <f ca="1"/>
-        <v>#### 1.12.1.1 Test and Measurement Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-32a8-f615e9f0498e)</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A130" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.12.1.3</v>
-      </c>
-      <c r="B130">
-        <v>4</v>
-      </c>
-      <c r="C130" t="s">
-        <v>113</v>
-      </c>
-      <c r="D130" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.12.1.3 Test and Measurement Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-41d4-c36ff7738b0e)</v>
-      </c>
-      <c r="F130" t="str">
-        <f ca="1"/>
-        <v>#### 1.12.1.2 Test and Measurement Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-f54a-2774d5240c9b)</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A131" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.12.1.4</v>
-      </c>
-      <c r="B131">
-        <v>4</v>
-      </c>
-      <c r="C131" t="s">
-        <v>114</v>
-      </c>
-      <c r="D131" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.12.1.4 Test and Measurement Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-4083-b24ead4811bb)</v>
-      </c>
-      <c r="F131" t="str">
-        <f ca="1"/>
-        <v>#### 1.12.1.3 Test and Measurement Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-41d4-c36ff7738b0e)</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A132" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.12.2</v>
-      </c>
-      <c r="B132">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
-        <v>115</v>
-      </c>
-      <c r="D132" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.12.2 Support and Handling Equipment[📄](./atlas/054c5639-61a8-7531-6317-6a5563e31b09)</v>
-      </c>
-      <c r="F132" t="str">
-        <f ca="1"/>
-        <v>#### 1.12.1.4 Test and Measurement Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-4083-b24ead4811bb)</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A133" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.12.2.1</v>
-      </c>
-      <c r="B133">
-        <v>4</v>
-      </c>
-      <c r="C133" t="s">
-        <v>116</v>
-      </c>
-      <c r="D133" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.12.2.1 Support and Handling Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-7f6b-40a63e1bd349)</v>
-      </c>
-      <c r="F133" t="str">
-        <f ca="1"/>
-        <v>### 1.12.2 Support and Handling Equipment[📄](./atlas/054c5639-61a8-7531-6317-6a5563e31b09)</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A134" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.12.2.2</v>
-      </c>
-      <c r="B134">
-        <v>4</v>
-      </c>
-      <c r="C134" t="s">
-        <v>117</v>
-      </c>
-      <c r="D134" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.12.2.2 Support and Handling Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-9174-a886318b1789)</v>
-      </c>
-      <c r="F134" t="str">
-        <f ca="1"/>
-        <v>#### 1.12.2.1 Support and Handling Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-7f6b-40a63e1bd349)</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A135" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.12.2.3</v>
-      </c>
-      <c r="B135">
-        <v>4</v>
-      </c>
-      <c r="C135" t="s">
-        <v>118</v>
-      </c>
-      <c r="D135" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.12.2.3 Support and Handling Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-ecc9-cd71eaa26f02)</v>
-      </c>
-      <c r="F135" t="str">
-        <f ca="1"/>
-        <v>#### 1.12.2.2 Support and Handling Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-9174-a886318b1789)</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A136" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.12.2.4</v>
-      </c>
-      <c r="B136">
-        <v>4</v>
-      </c>
-      <c r="C136" t="s">
-        <v>119</v>
-      </c>
-      <c r="D136" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### 1.12.2.4 Support and Handling Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-d2d9-816979ff48fe)</v>
-      </c>
-      <c r="F136" t="str">
-        <f ca="1"/>
-        <v>#### 1.12.2.3 Support and Handling Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-ecc9-cd71eaa26f02)</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A137" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.13</v>
-      </c>
-      <c r="B137">
-        <v>2</v>
-      </c>
-      <c r="C137" t="s">
-        <v>121</v>
-      </c>
-      <c r="D137" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.13 Operational/Site Activation by Site 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-89ff-71157183fa6c)</v>
-      </c>
-      <c r="F137" t="str">
-        <f ca="1"/>
-        <v>#### 1.12.2.4 Support and Handling Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-d2d9-816979ff48fe)</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A138" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.13.1</v>
-      </c>
-      <c r="B138">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
-        <v>122</v>
-      </c>
-      <c r="D138" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.13.1 System Assembly[📄](./atlas/054c5639-61a8-7531-a627-e36f1720d276)</v>
-      </c>
-      <c r="F138" t="str">
-        <f ca="1"/>
-        <v>## 1.13 Operational/Site Activation by Site 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-89ff-71157183fa6c)</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A139" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.13.2</v>
-      </c>
-      <c r="B139">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
-        <v>123</v>
-      </c>
-      <c r="D139" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.13.2 Contractor Technical Support[📄](./atlas/054c5639-61a8-7531-e4da-063be55bc86c)</v>
-      </c>
-      <c r="F139" t="str">
-        <f ca="1"/>
-        <v>### 1.13.1 System Assembly[📄](./atlas/054c5639-61a8-7531-a627-e36f1720d276)</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A140" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.13.3</v>
-      </c>
-      <c r="B140">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
-        <v>124</v>
-      </c>
-      <c r="D140" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.13.3 Site Construction[📄](./atlas/054c5639-61a8-7531-3907-e02787114a7e)</v>
-      </c>
-      <c r="F140" t="str">
-        <f ca="1"/>
-        <v>### 1.13.2 Contractor Technical Support[📄](./atlas/054c5639-61a8-7531-e4da-063be55bc86c)</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A141" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.13.4</v>
-      </c>
-      <c r="B141">
-        <v>3</v>
-      </c>
-      <c r="C141" t="s">
-        <v>125</v>
-      </c>
-      <c r="D141" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.13.4 Site/Ship/Vehicle Conversion[📄](./atlas/054c5639-61a8-7531-9d3c-551760d9f5ee)</v>
-      </c>
-      <c r="F141" t="str">
-        <f ca="1"/>
-        <v>### 1.13.3 Site Construction[📄](./atlas/054c5639-61a8-7531-3907-e02787114a7e)</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A142" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.13.5</v>
-      </c>
-      <c r="B142">
-        <v>3</v>
-      </c>
-      <c r="C142" t="s">
-        <v>126</v>
-      </c>
-      <c r="D142" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.13.5 Interim Contractor Support (ICS)[📄](./atlas/054c5639-61a8-7531-289f-2ed59658d26c)</v>
-      </c>
-      <c r="F142" t="str">
-        <f ca="1"/>
-        <v>### 1.13.4 Site/Ship/Vehicle Conversion[📄](./atlas/054c5639-61a8-7531-9d3c-551760d9f5ee)</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A143" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.14</v>
-      </c>
-      <c r="B143">
-        <v>2</v>
-      </c>
-      <c r="C143" t="s">
-        <v>127</v>
-      </c>
-      <c r="D143" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.14 Contractor Logistics Support (CLS)[📄](./atlas/054c5639-61a8-7531-3819-9e5a630830cf)</v>
-      </c>
-      <c r="F143" t="str">
-        <f ca="1"/>
-        <v>### 1.13.5 Interim Contractor Support (ICS)[📄](./atlas/054c5639-61a8-7531-289f-2ed59658d26c)</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A144" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.15</v>
-      </c>
-      <c r="B144">
-        <v>2</v>
-      </c>
-      <c r="C144" t="s">
-        <v>128</v>
-      </c>
-      <c r="D144" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.15 Industrial Facilities[📄](./atlas/054c5639-61a8-7531-afd4-f8b940d14f18)</v>
-      </c>
-      <c r="F144" t="str">
-        <f ca="1"/>
-        <v>## 1.14 Contractor Logistics Support (CLS)[📄](./atlas/054c5639-61a8-7531-3819-9e5a630830cf)</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A145" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.15.1</v>
-      </c>
-      <c r="B145">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
-        <v>129</v>
-      </c>
-      <c r="D145" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.15.1 Construction/Conversion/Expansion[📄](./atlas/054c5639-61a8-7531-a30b-90dc21ee343f)</v>
-      </c>
-      <c r="F145" t="str">
-        <f ca="1"/>
-        <v>## 1.15 Industrial Facilities[📄](./atlas/054c5639-61a8-7531-afd4-f8b940d14f18)</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A146" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.15.2</v>
-      </c>
-      <c r="B146">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
-        <v>130</v>
-      </c>
-      <c r="D146" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.15.2 Equipment Acquisition or Modernization[📄](./atlas/054c5639-61a8-7531-205c-96468aef7e33)</v>
-      </c>
-      <c r="F146" t="str">
-        <f ca="1"/>
-        <v>### 1.15.1 Construction/Conversion/Expansion[📄](./atlas/054c5639-61a8-7531-a30b-90dc21ee343f)</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A147" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.15.3</v>
-      </c>
-      <c r="B147">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
-        <v>131</v>
-      </c>
-      <c r="D147" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### 1.15.3 Maintenance (Industrial Facilities)[📄](./atlas/054c5639-61a8-7531-321b-faa0fc3b582e)</v>
-      </c>
-      <c r="F147" t="str">
-        <f ca="1"/>
-        <v>### 1.15.2 Equipment Acquisition or Modernization[📄](./atlas/054c5639-61a8-7531-205c-96468aef7e33)</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A148" s="1" t="str">
-        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v>1.16</v>
-      </c>
-      <c r="B148">
-        <v>2</v>
-      </c>
-      <c r="C148" t="s">
-        <v>132</v>
-      </c>
-      <c r="D148" t="str">
-        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## 1.16 Initial Spares and Repair Parts[📄](./atlas/054c5639-61a8-7531-926d-8ffe75fdd425)</v>
-      </c>
-      <c r="F148" t="str">
-        <f ca="1"/>
-        <v>### 1.15.3 Maintenance (Industrial Facilities)[📄](./atlas/054c5639-61a8-7531-321b-faa0fc3b582e)</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="F149" t="str">
-        <f ca="1"/>
-        <v>## 1.16 Initial Spares and Repair Parts[📄](./atlas/054c5639-61a8-7531-926d-8ffe75fdd425)</v>
+        <v xml:space="preserve">  Bicycle Project[📄](./atlas/054c5639-61a8-7531-3443-a421fbd58997)</v>
       </c>
     </row>
   </sheetData>
@@ -39556,15 +36891,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100362E5F718929694AB139DE2736475A59" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="36a92d4101235db337d1a43c28c65a96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b406bd9a-cde6-4834-9a67-0c60db9abeed" xmlns:ns3="b903bf0f-c6a5-4cb2-b1ec-bd1051193607" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04b1be96996d7e4f2bfe898edc4afd8c" ns2:_="" ns3:_="">
     <xsd:import namespace="b406bd9a-cde6-4834-9a67-0c60db9abeed"/>
@@ -39759,6 +37085,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -39771,14 +37106,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAFCB168-A783-47B0-B0EC-C36B4EAF5194}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AEA06FB-6EBE-414C-8845-4595427FC799}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39793,6 +37120,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAFCB168-A783-47B0-B0EC-C36B4EAF5194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudmappr.sharepoint.com/sites/WorkBreakdownPlanner/Shared Documents/atlas-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{B60B8E41-94DB-452C-8002-B5FBA5F7E6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243FC990-0833-4C82-AFAB-8D56C9DCF6AC}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{B60B8E41-94DB-452C-8002-B5FBA5F7E6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFBF4CDE-8046-4355-A065-5C4F04DD61FB}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{FCF27F45-24E2-4A49-A8BF-3589D27E158C}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{FCF27F45-24E2-4A49-A8BF-3589D27E158C}"/>
   </bookViews>
   <sheets>
     <sheet name="wbs2markmap" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="1528">
   <si>
     <t>level</t>
   </si>
@@ -4256,34 +4256,400 @@
     <t>📄</t>
   </si>
   <si>
-    <t>Atlas Introduction</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Use cases</t>
-  </si>
-  <si>
-    <t>Prrof of Concept</t>
-  </si>
-  <si>
-    <t>Markmap</t>
-  </si>
-  <si>
-    <t>Example Frontmatter</t>
-  </si>
-  <si>
-    <t>Example backmatter</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Bicycle Project</t>
-  </si>
-  <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>note: unfinished - not functional</t>
+  </si>
+  <si>
+    <t># WBS for MIL-STD-811f Appendix A: Aircraft System</t>
+  </si>
+  <si>
+    <t>## Aircraft System</t>
+  </si>
+  <si>
+    <t>## Air Vehicle</t>
+  </si>
+  <si>
+    <t>### Air Vehicle Integration</t>
+  </si>
+  <si>
+    <t>### Air Frame</t>
+  </si>
+  <si>
+    <t>#### Airframe Integration</t>
+  </si>
+  <si>
+    <t>#### Fuselage</t>
+  </si>
+  <si>
+    <t>#### Wing</t>
+  </si>
+  <si>
+    <t>#### Empennage</t>
+  </si>
+  <si>
+    <t>#### Nacelle</t>
+  </si>
+  <si>
+    <t>#### Other Airframe Components 1…n (Specify)</t>
+  </si>
+  <si>
+    <t>### Propulsion</t>
+  </si>
+  <si>
+    <t>### Vehicle Subsystems</t>
+  </si>
+  <si>
+    <t>#### Vehicle Subsystem Integration</t>
+  </si>
+  <si>
+    <t>#### Flight Control Subsystem</t>
+  </si>
+  <si>
+    <t>#### Auxiliary Power Subsystem</t>
+  </si>
+  <si>
+    <t>#### Hydraulic Subsystem</t>
+  </si>
+  <si>
+    <t>#### Electrical Subsystem</t>
+  </si>
+  <si>
+    <t>#### Crew Station Subsystem</t>
+  </si>
+  <si>
+    <t>#### Environmental Control Subsystem</t>
+  </si>
+  <si>
+    <t>#### Fuel Subsystem</t>
+  </si>
+  <si>
+    <t>#### Landing Gear</t>
+  </si>
+  <si>
+    <t>#### Rotor Group</t>
+  </si>
+  <si>
+    <t>#### Drive Group</t>
+  </si>
+  <si>
+    <t>#### Vehicle Subsystem Software Release 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>#### Other Subsystems 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>### Avionics</t>
+  </si>
+  <si>
+    <t>#### Avionics Integration</t>
+  </si>
+  <si>
+    <t>#### Communication/Identification</t>
+  </si>
+  <si>
+    <t>#### Navigation/Guidance</t>
+  </si>
+  <si>
+    <t>#### Mission Computer/Processing</t>
+  </si>
+  <si>
+    <t>#### Fire Control</t>
+  </si>
+  <si>
+    <t>#### Data Display and Controls</t>
+  </si>
+  <si>
+    <t>#### Survivability</t>
+  </si>
+  <si>
+    <t>#### Reconnaissance</t>
+  </si>
+  <si>
+    <t>#### Electronic Warfare</t>
+  </si>
+  <si>
+    <t>#### Automatic Flight Control</t>
+  </si>
+  <si>
+    <t>#### Health Monitoring System</t>
+  </si>
+  <si>
+    <t>#### Stores Management</t>
+  </si>
+  <si>
+    <t>#### Avionics Software Release 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>#### Other Avionics Subsystems 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>### Armament/Weapons Delivery</t>
+  </si>
+  <si>
+    <t>### Auxiliary Equipment</t>
+  </si>
+  <si>
+    <t>### Furnishings and Equipment</t>
+  </si>
+  <si>
+    <t>### Air Vehicle Software Release 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>### Other Air Vehicle 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>## Payload/Mission System</t>
+  </si>
+  <si>
+    <t>### Payload Integration</t>
+  </si>
+  <si>
+    <t>### Survivability Payload 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>### Reconnaissance Payload 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>### Electronic Warfare Payload 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>### Armament/Weapons Delivery Payload 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>### Payload Software Release 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>### Other Payload 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>## Ground/Host Segment</t>
+  </si>
+  <si>
+    <t>### Ground Segment Integration</t>
+  </si>
+  <si>
+    <t>### Ground Control Systems</t>
+  </si>
+  <si>
+    <t>### Command and Control Subsystem</t>
+  </si>
+  <si>
+    <t>### Launch Equipment</t>
+  </si>
+  <si>
+    <t>### Recovery Equipment</t>
+  </si>
+  <si>
+    <t>### Transport Vehicles</t>
+  </si>
+  <si>
+    <t>### Ground Segment Software Release 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>### Other Ground/Host Segment 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>## Aircraft System Software Release 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>## Systems Engineering</t>
+  </si>
+  <si>
+    <t>### Software Systems Engineering</t>
+  </si>
+  <si>
+    <t>### Integrated Logistics Support (ILS) Systems Engineering</t>
+  </si>
+  <si>
+    <t>### Cybersecurity Systems Engineering</t>
+  </si>
+  <si>
+    <t>### Core Systems Engineering</t>
+  </si>
+  <si>
+    <t>### Other Systems Engineering 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>## Program Management</t>
+  </si>
+  <si>
+    <t>### Software Program Management</t>
+  </si>
+  <si>
+    <t>### Integrated Logistics Support (ILS) Program Management</t>
+  </si>
+  <si>
+    <t>### Cybersecurity Management</t>
+  </si>
+  <si>
+    <t>### Core Program Management</t>
+  </si>
+  <si>
+    <t>### Other Program Management 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>## System Test and Evaluation</t>
+  </si>
+  <si>
+    <t>### Developmental Test and Evaluation</t>
+  </si>
+  <si>
+    <t>#### System Acceptance Test</t>
+  </si>
+  <si>
+    <t>#### Wind Tunnel Tests</t>
+  </si>
+  <si>
+    <t>#### Structural Tests</t>
+  </si>
+  <si>
+    <t>#### Flight Tests</t>
+  </si>
+  <si>
+    <t>#### Ground Tests</t>
+  </si>
+  <si>
+    <t>#### Cybersecurity Test and Evaluation</t>
+  </si>
+  <si>
+    <t>#### Other DT&amp;E Tests 1…n (Specify)</t>
+  </si>
+  <si>
+    <t>### Operational Test and Evaluation</t>
+  </si>
+  <si>
+    <t>#### Limited User Evaluation (LUE/M-LUT/FUE)</t>
+  </si>
+  <si>
+    <t>#### Interoperability Testing</t>
+  </si>
+  <si>
+    <t>#### Other OT&amp;E Tests 1…n (Specify)</t>
+  </si>
+  <si>
+    <t>### Live Fire Test and Evaluation</t>
+  </si>
+  <si>
+    <t>### Mock-ups/System Integration Labs (SILs)</t>
+  </si>
+  <si>
+    <t>### Test and Evaluation Support</t>
+  </si>
+  <si>
+    <t>### Test Facilities</t>
+  </si>
+  <si>
+    <t>## Training</t>
+  </si>
+  <si>
+    <t>### Equipment</t>
+  </si>
+  <si>
+    <t>#### Operator Instructional Equipment</t>
+  </si>
+  <si>
+    <t>#### Maintainer Instructional Equipment</t>
+  </si>
+  <si>
+    <t>#### Services</t>
+  </si>
+  <si>
+    <t>#### Operator Instructional Services</t>
+  </si>
+  <si>
+    <t>#### Maintainer Instructional Services</t>
+  </si>
+  <si>
+    <t>### Facilities</t>
+  </si>
+  <si>
+    <t>### Training Software 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>## Data</t>
+  </si>
+  <si>
+    <t>### Data Deliverables 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>### Data Repository</t>
+  </si>
+  <si>
+    <t>### Data Rights 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>## Peculiar Support Equipment</t>
+  </si>
+  <si>
+    <t>### Test and Measurement Equipment</t>
+  </si>
+  <si>
+    <t>#### Test and Measurement Equipment (Airframe/Hull/Vehicle)</t>
+  </si>
+  <si>
+    <t>#### Test and Measurement Equipment (Propulsion)</t>
+  </si>
+  <si>
+    <t>#### Test and Measurement Equipment (Electronics/Avionics)</t>
+  </si>
+  <si>
+    <t>#### Test and Measurement Equipment (Other Major Subsystems 1...n (Specify))</t>
+  </si>
+  <si>
+    <t>### Support and Handling Equipment</t>
+  </si>
+  <si>
+    <t>#### Support and Handling Equipment (Airframe/Hull/Vehicle)</t>
+  </si>
+  <si>
+    <t>#### Support and Handling Equipment (Propulsion)</t>
+  </si>
+  <si>
+    <t>#### Support and Handling Equipment (Electronics/Avionics)</t>
+  </si>
+  <si>
+    <t>#### Support and Handling Equipment (Other Major Subsystems 1...n (Specify))</t>
+  </si>
+  <si>
+    <t>## Common Support Equipment</t>
+  </si>
+  <si>
+    <t>## Operational/Site Activation by Site 1...n (Specify)</t>
+  </si>
+  <si>
+    <t>### System Assembly</t>
+  </si>
+  <si>
+    <t>### Contractor Technical Support</t>
+  </si>
+  <si>
+    <t>### Site Construction</t>
+  </si>
+  <si>
+    <t>### Site/Ship/Vehicle Conversion</t>
+  </si>
+  <si>
+    <t>### Interim Contractor Support (ICS)</t>
+  </si>
+  <si>
+    <t>## Contractor Logistics Support (CLS)</t>
+  </si>
+  <si>
+    <t>## Industrial Facilities</t>
+  </si>
+  <si>
+    <t>### Construction/Conversion/Expansion</t>
+  </si>
+  <si>
+    <t>### Equipment Acquisition or Modernization</t>
+  </si>
+  <si>
+    <t>### Maintenance (Industrial Facilities)</t>
+  </si>
+  <si>
+    <t>## Initial Spares and Repair Parts</t>
   </si>
 </sst>
 </file>
@@ -4415,8 +4781,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{809D99AA-34D3-47B4-8DD1-891C432CA070}" name="wbsToMarkmap" displayName="wbsToMarkmap" ref="A5:E14" totalsRowShown="0">
-  <autoFilter ref="A5:E14" xr:uid="{809D99AA-34D3-47B4-8DD1-891C432CA070}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{809D99AA-34D3-47B4-8DD1-891C432CA070}" name="wbsToMarkmap" displayName="wbsToMarkmap" ref="A5:E148" totalsRowShown="0">
+  <autoFilter ref="A5:E148" xr:uid="{809D99AA-34D3-47B4-8DD1-891C432CA070}"/>
   <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{6EA50491-75D2-4607-A201-A43D3E20E6A1}" name="wbsNo" dataDxfId="2">
       <calculatedColumnFormula>IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</calculatedColumnFormula>
@@ -4764,10 +5130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FF2416-F1C7-4E4B-8034-73269739185A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4789,7 +5155,7 @@
       </c>
       <c r="E1" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>054c5639-3965-7531-39b7-14d12a237f3b</v>
+        <v>054c5639-b89b-7531-5467-ec8d4d9b1d25</v>
       </c>
       <c r="G1" t="s">
         <v>1390</v>
@@ -4834,7 +5200,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="E5" t="s">
         <v>1385</v>
@@ -4852,156 +5218,2860 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1396</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v># 1 Atlas Introduction[📄](./atlas/054c5639-61a8-7531-1dd3-b607f67eda7a)</v>
+        <v># 1 WBS for MIL-STD-811f Appendix A: Aircraft System[📄](./atlas/054c5639-61a8-7531-d759-7d939fc49ebb)</v>
       </c>
       <c r="G6" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="str">
+      <c r="A7" s="1" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v/>
+        <v>1.1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E7" s="4" t="str">
+        <v>4</v>
+      </c>
+      <c r="E7" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v xml:space="preserve">  Overview[📄](./atlas/054c5639-61a8-7531-a11b-0c4f4fbbeeb5)</v>
+        <v>## 1.1 Aircraft System[📄](./atlas/054c5639-61a8-7531-9068-bd36d7ea9d65)</v>
       </c>
       <c r="G7" t="str" cm="1">
-        <f t="array" aca="1" ref="G7:G15" ca="1">wbsToMarkmap[markmapMM]</f>
-        <v># 1 Atlas Introduction[📄](./atlas/054c5639-61a8-7531-1dd3-b607f67eda7a)</v>
+        <f t="array" aca="1" ref="G7:G149" ca="1">wbsToMarkmap[markmapMM]</f>
+        <v># 1 WBS for MIL-STD-811f Appendix A: Aircraft System[📄](./atlas/054c5639-61a8-7531-d759-7d939fc49ebb)</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="str">
+      <c r="A8" s="1" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v/>
+        <v>1.2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E8" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="E8" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v xml:space="preserve">  Use cases[📄](./atlas/054c5639-61a8-7531-7ecd-cc8c8edbc668)</v>
+        <v>## 1.2 Air Vehicle[📄](./atlas/054c5639-61a8-7531-31c8-a3bce98a414d)</v>
       </c>
       <c r="G8" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">  Overview[📄](./atlas/054c5639-61a8-7531-a11b-0c4f4fbbeeb5)</v>
+        <v>## 1.1 Aircraft System[📄](./atlas/054c5639-61a8-7531-9068-bd36d7ea9d65)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="str">
+      <c r="A9" s="1" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v/>
+        <v>1.2.1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>1399</v>
-      </c>
-      <c r="E9" s="4" t="str">
+        <v>6</v>
+      </c>
+      <c r="E9" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v xml:space="preserve">  Prrof of Concept[📄](./atlas/054c5639-61a8-7531-7246-c2d722dc5216)</v>
+        <v>### 1.2.1 Air Vehicle Integration[📄](./atlas/054c5639-61a8-7531-695d-5e670adaa15c)</v>
       </c>
       <c r="G9" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">  Use cases[📄](./atlas/054c5639-61a8-7531-7ecd-cc8c8edbc668)</v>
+        <v>## 1.2 Air Vehicle[📄](./atlas/054c5639-61a8-7531-31c8-a3bce98a414d)</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="str">
+      <c r="A10" s="1" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v/>
+        <v>1.2.2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E10" s="4" t="str">
+        <v>7</v>
+      </c>
+      <c r="E10" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v xml:space="preserve">  Markmap[📄](./atlas/054c5639-61a8-7531-3101-7009c86d7169)</v>
+        <v>### 1.2.2 Air Frame[📄](./atlas/054c5639-61a8-7531-795f-1d696771bc97)</v>
       </c>
       <c r="G10" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">  Prrof of Concept[📄](./atlas/054c5639-61a8-7531-7246-c2d722dc5216)</v>
+        <v>### 1.2.1 Air Vehicle Integration[📄](./atlas/054c5639-61a8-7531-695d-5e670adaa15c)</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="str">
+      <c r="A11" s="1" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v/>
+        <v>1.2.2.1</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E11" s="4" t="str">
+        <v>8</v>
+      </c>
+      <c r="E11" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v xml:space="preserve">  Example Frontmatter[📄](./atlas/054c5639-61a8-7531-73f7-ee18862faa1a)</v>
+        <v>#### 1.2.2.1 Airframe Integration[📄](./atlas/054c5639-61a8-7531-dc63-5a28938c5aaf)</v>
       </c>
       <c r="G11" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">  Markmap[📄](./atlas/054c5639-61a8-7531-3101-7009c86d7169)</v>
+        <v>### 1.2.2 Air Frame[📄](./atlas/054c5639-61a8-7531-795f-1d696771bc97)</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="str">
+      <c r="A12" s="1" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v/>
+        <v>1.2.2.2</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E12" s="4" t="str">
+        <v>9</v>
+      </c>
+      <c r="E12" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v xml:space="preserve">  Example backmatter[📄](./atlas/054c5639-61a8-7531-1081-0ac2f2ae3fe3)</v>
+        <v>#### 1.2.2.2 Fuselage[📄](./atlas/054c5639-61a8-7531-3646-f74078a21bb6)</v>
       </c>
       <c r="G12" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">  Example Frontmatter[📄](./atlas/054c5639-61a8-7531-73f7-ee18862faa1a)</v>
+        <v>#### 1.2.2.1 Airframe Integration[📄](./atlas/054c5639-61a8-7531-dc63-5a28938c5aaf)</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="str">
+      <c r="A13" s="1" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v/>
+        <v>1.2.2.3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E13" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="E13" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v xml:space="preserve">  Output[📄](./atlas/054c5639-61a8-7531-648f-3bbf7e9fed7f)</v>
+        <v>#### 1.2.2.3 Wing[📄](./atlas/054c5639-61a8-7531-d728-0e89d7c605f8)</v>
       </c>
       <c r="G13" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">  Example backmatter[📄](./atlas/054c5639-61a8-7531-1081-0ac2f2ae3fe3)</v>
+        <v>#### 1.2.2.2 Fuselage[📄](./atlas/054c5639-61a8-7531-3646-f74078a21bb6)</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="str">
+      <c r="A14" s="1" t="str">
         <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
-        <v/>
+        <v>1.2.2.4</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E14" s="4" t="str">
+        <v>11</v>
+      </c>
+      <c r="E14" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v xml:space="preserve">  Bicycle Project[📄](./atlas/054c5639-61a8-7531-3443-a421fbd58997)</v>
+        <v>#### 1.2.2.4 Empennage[📄](./atlas/054c5639-61a8-7531-8b5e-3f6f711b7be4)</v>
       </c>
       <c r="G14" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">  Output[📄](./atlas/054c5639-61a8-7531-648f-3bbf7e9fed7f)</v>
+        <v>#### 1.2.2.3 Wing[📄](./atlas/054c5639-61a8-7531-d728-0e89d7c605f8)</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.2.5</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.2.5 Nacelle[📄](./atlas/054c5639-61a8-7531-311d-d41cb75979dd)</v>
+      </c>
       <c r="G15" t="str">
         <f ca="1"/>
-        <v xml:space="preserve">  Bicycle Project[📄](./atlas/054c5639-61a8-7531-3443-a421fbd58997)</v>
+        <v>#### 1.2.2.4 Empennage[📄](./atlas/054c5639-61a8-7531-8b5e-3f6f711b7be4)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.2.6</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.2.6 Other Airframe Components 1…n (Specify)[📄](./atlas/054c5639-61a8-7531-4abf-57d95055298d)</v>
+      </c>
+      <c r="G16" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.2.5 Nacelle[📄](./atlas/054c5639-61a8-7531-311d-d41cb75979dd)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A17" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.2.3 Propulsion[📄](./atlas/054c5639-61a8-7531-c3f1-529df48958e6)</v>
+      </c>
+      <c r="G17" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.2.6 Other Airframe Components 1…n (Specify)[📄](./atlas/054c5639-61a8-7531-4abf-57d95055298d)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A18" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.2.4 Vehicle Subsystems[📄](./atlas/054c5639-61a8-7531-adf5-f84e47993b95)</v>
+      </c>
+      <c r="G18" t="str">
+        <f ca="1"/>
+        <v>### 1.2.3 Propulsion[📄](./atlas/054c5639-61a8-7531-c3f1-529df48958e6)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.1</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.1 Vehicle Subsystem Integration[📄](./atlas/054c5639-61a8-7531-11f5-54b5f7f6a45a)</v>
+      </c>
+      <c r="G19" t="str">
+        <f ca="1"/>
+        <v>### 1.2.4 Vehicle Subsystems[📄](./atlas/054c5639-61a8-7531-adf5-f84e47993b95)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A20" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.2</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.2 Flight Control Subsystem[📄](./atlas/054c5639-61a8-7531-dbbf-71c8601511ed)</v>
+      </c>
+      <c r="G20" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.1 Vehicle Subsystem Integration[📄](./atlas/054c5639-61a8-7531-11f5-54b5f7f6a45a)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A21" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.3 Auxiliary Power Subsystem[📄](./atlas/054c5639-61a8-7531-3210-63fc07f21ee1)</v>
+      </c>
+      <c r="G21" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.2 Flight Control Subsystem[📄](./atlas/054c5639-61a8-7531-dbbf-71c8601511ed)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A22" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.4</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.4 Hydraulic Subsystem[📄](./atlas/054c5639-61a8-7531-a6be-ccf87ce3d04f)</v>
+      </c>
+      <c r="G22" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.3 Auxiliary Power Subsystem[📄](./atlas/054c5639-61a8-7531-3210-63fc07f21ee1)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A23" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.5</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.5 Electrical Subsystem[📄](./atlas/054c5639-61a8-7531-a94e-bd5a2d1e1fb6)</v>
+      </c>
+      <c r="G23" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.4 Hydraulic Subsystem[📄](./atlas/054c5639-61a8-7531-a6be-ccf87ce3d04f)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.6</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.6 Crew Station Subsystem[📄](./atlas/054c5639-61a8-7531-3bf3-14a328fc103e)</v>
+      </c>
+      <c r="G24" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.5 Electrical Subsystem[📄](./atlas/054c5639-61a8-7531-a94e-bd5a2d1e1fb6)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A25" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.7</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.7 Environmental Control Subsystem[📄](./atlas/054c5639-61a8-7531-cf89-5c790215602b)</v>
+      </c>
+      <c r="G25" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.6 Crew Station Subsystem[📄](./atlas/054c5639-61a8-7531-3bf3-14a328fc103e)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.8</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.8 Fuel Subsystem[📄](./atlas/054c5639-61a8-7531-a31c-3c1a6c3532dd)</v>
+      </c>
+      <c r="G26" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.7 Environmental Control Subsystem[📄](./atlas/054c5639-61a8-7531-cf89-5c790215602b)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.9</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.9 Landing Gear[📄](./atlas/054c5639-61a8-7531-d155-6de4016470bf)</v>
+      </c>
+      <c r="G27" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.8 Fuel Subsystem[📄](./atlas/054c5639-61a8-7531-a31c-3c1a6c3532dd)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.10</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.10 Rotor Group[📄](./atlas/054c5639-61a8-7531-1258-c5b8eed3a967)</v>
+      </c>
+      <c r="G28" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.9 Landing Gear[📄](./atlas/054c5639-61a8-7531-d155-6de4016470bf)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A29" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.11</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.11 Drive Group[📄](./atlas/054c5639-61a8-7531-2f7d-755abe2f5505)</v>
+      </c>
+      <c r="G29" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.10 Rotor Group[📄](./atlas/054c5639-61a8-7531-1258-c5b8eed3a967)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A30" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.12</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.12 Vehicle Subsystem Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-971d-3e1447ca4ad2)</v>
+      </c>
+      <c r="G30" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.11 Drive Group[📄](./atlas/054c5639-61a8-7531-2f7d-755abe2f5505)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A31" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.4.13</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.4.13 Other Subsystems 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-3f92-fc7cd7da45f8)</v>
+      </c>
+      <c r="G31" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.12 Vehicle Subsystem Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-971d-3e1447ca4ad2)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A32" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.2.5 Avionics[📄](./atlas/054c5639-61a8-7531-4b71-157fdb359949)</v>
+      </c>
+      <c r="G32" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.4.13 Other Subsystems 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-3f92-fc7cd7da45f8)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A33" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.1</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.1 Avionics Integration[📄](./atlas/054c5639-61a8-7531-d857-76403a0e2ae2)</v>
+      </c>
+      <c r="G33" t="str">
+        <f ca="1"/>
+        <v>### 1.2.5 Avionics[📄](./atlas/054c5639-61a8-7531-4b71-157fdb359949)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A34" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.2</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.2 Communication/Identification[📄](./atlas/054c5639-61a8-7531-e9e4-0efb4d8b3ec4)</v>
+      </c>
+      <c r="G34" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.1 Avionics Integration[📄](./atlas/054c5639-61a8-7531-d857-76403a0e2ae2)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A35" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.3</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.3 Navigation/Guidance[📄](./atlas/054c5639-61a8-7531-0bc6-d41b3fa63526)</v>
+      </c>
+      <c r="G35" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.2 Communication/Identification[📄](./atlas/054c5639-61a8-7531-e9e4-0efb4d8b3ec4)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A36" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.4</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.4 Mission Computer/Processing[📄](./atlas/054c5639-61a8-7531-212a-428c30f9a832)</v>
+      </c>
+      <c r="G36" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.3 Navigation/Guidance[📄](./atlas/054c5639-61a8-7531-0bc6-d41b3fa63526)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A37" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.5</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.5 Fire Control[📄](./atlas/054c5639-61a8-7531-35c6-70083ee82ac4)</v>
+      </c>
+      <c r="G37" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.4 Mission Computer/Processing[📄](./atlas/054c5639-61a8-7531-212a-428c30f9a832)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A38" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.6</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.6 Data Display and Controls[📄](./atlas/054c5639-61a8-7531-b00a-d49a0ac2bef7)</v>
+      </c>
+      <c r="G38" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.5 Fire Control[📄](./atlas/054c5639-61a8-7531-35c6-70083ee82ac4)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A39" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.7</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.7 Survivability[📄](./atlas/054c5639-61a8-7531-3df0-8d54795b1280)</v>
+      </c>
+      <c r="G39" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.6 Data Display and Controls[📄](./atlas/054c5639-61a8-7531-b00a-d49a0ac2bef7)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A40" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.8</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.8 Reconnaissance[📄](./atlas/054c5639-61a8-7531-55fe-99d5d7d49a49)</v>
+      </c>
+      <c r="G40" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.7 Survivability[📄](./atlas/054c5639-61a8-7531-3df0-8d54795b1280)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A41" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.9</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.9 Electronic Warfare[📄](./atlas/054c5639-61a8-7531-9929-679321effe29)</v>
+      </c>
+      <c r="G41" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.8 Reconnaissance[📄](./atlas/054c5639-61a8-7531-55fe-99d5d7d49a49)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A42" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.10</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.10 Automatic Flight Control[📄](./atlas/054c5639-61a8-7531-cfab-c7838a8e61a5)</v>
+      </c>
+      <c r="G42" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.9 Electronic Warfare[📄](./atlas/054c5639-61a8-7531-9929-679321effe29)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A43" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.11</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.11 Health Monitoring System[📄](./atlas/054c5639-61a8-7531-d134-c5bb2939667f)</v>
+      </c>
+      <c r="G43" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.10 Automatic Flight Control[📄](./atlas/054c5639-61a8-7531-cfab-c7838a8e61a5)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A44" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.12</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.12 Stores Management[📄](./atlas/054c5639-61a8-7531-2880-e212cb564703)</v>
+      </c>
+      <c r="G44" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.11 Health Monitoring System[📄](./atlas/054c5639-61a8-7531-d134-c5bb2939667f)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A45" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.13</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.13 Avionics Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-a4c5-91e1a8883fad)</v>
+      </c>
+      <c r="G45" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.12 Stores Management[📄](./atlas/054c5639-61a8-7531-2880-e212cb564703)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A46" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.5.14</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.2.5.14 Other Avionics Subsystems 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-e1b8-fa7cbb569116)</v>
+      </c>
+      <c r="G46" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.13 Avionics Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-a4c5-91e1a8883fad)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A47" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.6</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.2.6 Armament/Weapons Delivery[📄](./atlas/054c5639-61a8-7531-69bf-c777611cd3a3)</v>
+      </c>
+      <c r="G47" t="str">
+        <f ca="1"/>
+        <v>#### 1.2.5.14 Other Avionics Subsystems 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-e1b8-fa7cbb569116)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A48" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.7</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.2.7 Auxiliary Equipment[📄](./atlas/054c5639-61a8-7531-0a50-dc6708fd3164)</v>
+      </c>
+      <c r="G48" t="str">
+        <f ca="1"/>
+        <v>### 1.2.6 Armament/Weapons Delivery[📄](./atlas/054c5639-61a8-7531-69bf-c777611cd3a3)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A49" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.8</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.2.8 Furnishings and Equipment[📄](./atlas/054c5639-61a8-7531-e138-5fef18cab935)</v>
+      </c>
+      <c r="G49" t="str">
+        <f ca="1"/>
+        <v>### 1.2.7 Auxiliary Equipment[📄](./atlas/054c5639-61a8-7531-0a50-dc6708fd3164)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A50" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.9</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.2.9 Air Vehicle Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-67b6-026bee6b10b4)</v>
+      </c>
+      <c r="G50" t="str">
+        <f ca="1"/>
+        <v>### 1.2.8 Furnishings and Equipment[📄](./atlas/054c5639-61a8-7531-e138-5fef18cab935)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A51" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.2.10</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.2.10 Other Air Vehicle 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-e2d3-e61d6d1433d8)</v>
+      </c>
+      <c r="G51" t="str">
+        <f ca="1"/>
+        <v>### 1.2.9 Air Vehicle Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-67b6-026bee6b10b4)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A52" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.3</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.3 Payload/Mission System[📄](./atlas/054c5639-61a8-7531-c6ec-0cd05e1b846f)</v>
+      </c>
+      <c r="G52" t="str">
+        <f ca="1"/>
+        <v>### 1.2.10 Other Air Vehicle 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-e2d3-e61d6d1433d8)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A53" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.3.1</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.3.1 Payload Integration[📄](./atlas/054c5639-61a8-7531-0619-8e3761e1b408)</v>
+      </c>
+      <c r="G53" t="str">
+        <f ca="1"/>
+        <v>## 1.3 Payload/Mission System[📄](./atlas/054c5639-61a8-7531-c6ec-0cd05e1b846f)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A54" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.3.2 Survivability Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-090e-3bd49ca16506)</v>
+      </c>
+      <c r="G54" t="str">
+        <f ca="1"/>
+        <v>### 1.3.1 Payload Integration[📄](./atlas/054c5639-61a8-7531-0619-8e3761e1b408)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A55" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.3.3</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.3.3 Reconnaissance Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-fa5e-f466a16c4733)</v>
+      </c>
+      <c r="G55" t="str">
+        <f ca="1"/>
+        <v>### 1.3.2 Survivability Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-090e-3bd49ca16506)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A56" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.3.4</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.3.4 Electronic Warfare Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-d0c7-64e269f69a3a)</v>
+      </c>
+      <c r="G56" t="str">
+        <f ca="1"/>
+        <v>### 1.3.3 Reconnaissance Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-fa5e-f466a16c4733)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A57" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.3.5</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.3.5 Armament/Weapons Delivery Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-b2bf-10ef23450d91)</v>
+      </c>
+      <c r="G57" t="str">
+        <f ca="1"/>
+        <v>### 1.3.4 Electronic Warfare Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-d0c7-64e269f69a3a)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A58" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.3.6</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.3.6 Payload Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-1d8a-79b3e161e364)</v>
+      </c>
+      <c r="G58" t="str">
+        <f ca="1"/>
+        <v>### 1.3.5 Armament/Weapons Delivery Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-b2bf-10ef23450d91)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A59" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.3.7</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.3.7 Other Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-1fa4-a651efc94524)</v>
+      </c>
+      <c r="G59" t="str">
+        <f ca="1"/>
+        <v>### 1.3.6 Payload Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-1d8a-79b3e161e364)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A60" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.4</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.4 Ground/Host Segment[📄](./atlas/054c5639-61a8-7531-3b64-b784f1889f27)</v>
+      </c>
+      <c r="G60" t="str">
+        <f ca="1"/>
+        <v>### 1.3.7 Other Payload 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-1fa4-a651efc94524)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A61" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.4.1</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.4.1 Ground Segment Integration[📄](./atlas/054c5639-61a8-7531-cd07-0430ab251439)</v>
+      </c>
+      <c r="G61" t="str">
+        <f ca="1"/>
+        <v>## 1.4 Ground/Host Segment[📄](./atlas/054c5639-61a8-7531-3b64-b784f1889f27)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A62" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.4.2</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.4.2 Ground Control Systems[📄](./atlas/054c5639-61a8-7531-69ee-dabf74c12dd9)</v>
+      </c>
+      <c r="G62" t="str">
+        <f ca="1"/>
+        <v>### 1.4.1 Ground Segment Integration[📄](./atlas/054c5639-61a8-7531-cd07-0430ab251439)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A63" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.4.3</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.4.3 Command and Control Subsystem[📄](./atlas/054c5639-61a8-7531-753e-80fae59d7024)</v>
+      </c>
+      <c r="G63" t="str">
+        <f ca="1"/>
+        <v>### 1.4.2 Ground Control Systems[📄](./atlas/054c5639-61a8-7531-69ee-dabf74c12dd9)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A64" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.4.4</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.4.4 Launch Equipment[📄](./atlas/054c5639-61a8-7531-00b8-b1cb308c1270)</v>
+      </c>
+      <c r="G64" t="str">
+        <f ca="1"/>
+        <v>### 1.4.3 Command and Control Subsystem[📄](./atlas/054c5639-61a8-7531-753e-80fae59d7024)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A65" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.4.5</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.4.5 Recovery Equipment[📄](./atlas/054c5639-61a8-7531-2531-f20752e94646)</v>
+      </c>
+      <c r="G65" t="str">
+        <f ca="1"/>
+        <v>### 1.4.4 Launch Equipment[📄](./atlas/054c5639-61a8-7531-00b8-b1cb308c1270)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A66" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.4.6</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.4.6 Transport Vehicles[📄](./atlas/054c5639-61a8-7531-9962-971aadc57121)</v>
+      </c>
+      <c r="G66" t="str">
+        <f ca="1"/>
+        <v>### 1.4.5 Recovery Equipment[📄](./atlas/054c5639-61a8-7531-2531-f20752e94646)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A67" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.4.7</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.4.7 Ground Segment Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-1523-70ad4f4cd531)</v>
+      </c>
+      <c r="G67" t="str">
+        <f ca="1"/>
+        <v>### 1.4.6 Transport Vehicles[📄](./atlas/054c5639-61a8-7531-9962-971aadc57121)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A68" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.4.8</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.4.8 Other Ground/Host Segment 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-8f4f-d262eb59e79f)</v>
+      </c>
+      <c r="G68" t="str">
+        <f ca="1"/>
+        <v>### 1.4.7 Ground Segment Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-1523-70ad4f4cd531)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A69" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.5 Aircraft System Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-88cf-bb900856eeb3)</v>
+      </c>
+      <c r="G69" t="str">
+        <f ca="1"/>
+        <v>### 1.4.8 Other Ground/Host Segment 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-8f4f-d262eb59e79f)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A70" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.6</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.6 Systems Engineering[📄](./atlas/054c5639-61a8-7531-af36-213a159ef7f4)</v>
+      </c>
+      <c r="G70" t="str">
+        <f ca="1"/>
+        <v>## 1.5 Aircraft System Software Release 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-88cf-bb900856eeb3)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A71" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.6.1</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.6.1 Software Systems Engineering[📄](./atlas/054c5639-61a8-7531-36fd-c697c7543d20)</v>
+      </c>
+      <c r="G71" t="str">
+        <f ca="1"/>
+        <v>## 1.6 Systems Engineering[📄](./atlas/054c5639-61a8-7531-af36-213a159ef7f4)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A72" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.6.2</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.6.2 Integrated Logistics Support (ILS) Systems Engineering[📄](./atlas/054c5639-61a8-7531-3fda-112fc4b7f343)</v>
+      </c>
+      <c r="G72" t="str">
+        <f ca="1"/>
+        <v>### 1.6.1 Software Systems Engineering[📄](./atlas/054c5639-61a8-7531-36fd-c697c7543d20)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A73" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.6.3</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.6.3 Cybersecurity Systems Engineering[📄](./atlas/054c5639-61a8-7531-b410-c732a500592a)</v>
+      </c>
+      <c r="G73" t="str">
+        <f ca="1"/>
+        <v>### 1.6.2 Integrated Logistics Support (ILS) Systems Engineering[📄](./atlas/054c5639-61a8-7531-3fda-112fc4b7f343)</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A74" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.6.4</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.6.4 Core Systems Engineering[📄](./atlas/054c5639-61a8-7531-a715-8cd346d9808e)</v>
+      </c>
+      <c r="G74" t="str">
+        <f ca="1"/>
+        <v>### 1.6.3 Cybersecurity Systems Engineering[📄](./atlas/054c5639-61a8-7531-b410-c732a500592a)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A75" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.6.5</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.6.5 Other Systems Engineering 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-842c-403f91eed8f6)</v>
+      </c>
+      <c r="G75" t="str">
+        <f ca="1"/>
+        <v>### 1.6.4 Core Systems Engineering[📄](./atlas/054c5639-61a8-7531-a715-8cd346d9808e)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A76" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.7</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.7 Program Management[📄](./atlas/054c5639-61a8-7531-a023-87be0b3b2472)</v>
+      </c>
+      <c r="G76" t="str">
+        <f ca="1"/>
+        <v>### 1.6.5 Other Systems Engineering 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-842c-403f91eed8f6)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A77" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.7.1</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.7.1 Software Program Management[📄](./atlas/054c5639-61a8-7531-6bd3-fe5f6929a767)</v>
+      </c>
+      <c r="G77" t="str">
+        <f ca="1"/>
+        <v>## 1.7 Program Management[📄](./atlas/054c5639-61a8-7531-a023-87be0b3b2472)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A78" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.7.2</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.7.2 Integrated Logistics Support (ILS) Program Management[📄](./atlas/054c5639-61a8-7531-623a-3d6c02537cf7)</v>
+      </c>
+      <c r="G78" t="str">
+        <f ca="1"/>
+        <v>### 1.7.1 Software Program Management[📄](./atlas/054c5639-61a8-7531-6bd3-fe5f6929a767)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A79" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.7.3</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.7.3 Cybersecurity Management[📄](./atlas/054c5639-61a8-7531-9b25-e8dcda3cac6d)</v>
+      </c>
+      <c r="G79" t="str">
+        <f ca="1"/>
+        <v>### 1.7.2 Integrated Logistics Support (ILS) Program Management[📄](./atlas/054c5639-61a8-7531-623a-3d6c02537cf7)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A80" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.7.4</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.7.4 Core Program Management[📄](./atlas/054c5639-61a8-7531-d286-4172643f601c)</v>
+      </c>
+      <c r="G80" t="str">
+        <f ca="1"/>
+        <v>### 1.7.3 Cybersecurity Management[📄](./atlas/054c5639-61a8-7531-9b25-e8dcda3cac6d)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A81" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.7.5</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.7.5 Other Program Management 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-afd0-8075dce130fa)</v>
+      </c>
+      <c r="G81" t="str">
+        <f ca="1"/>
+        <v>### 1.7.4 Core Program Management[📄](./atlas/054c5639-61a8-7531-d286-4172643f601c)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A82" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.8 System Test and Evaluation[📄](./atlas/054c5639-61a8-7531-1151-516e6c8aedc8)</v>
+      </c>
+      <c r="G82" t="str">
+        <f ca="1"/>
+        <v>### 1.7.5 Other Program Management 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-afd0-8075dce130fa)</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A83" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.1</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="E83" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.8.1 Developmental Test and Evaluation[📄](./atlas/054c5639-61a8-7531-8e02-01d6cbf81dbc)</v>
+      </c>
+      <c r="G83" t="str">
+        <f ca="1"/>
+        <v>## 1.8 System Test and Evaluation[📄](./atlas/054c5639-61a8-7531-1151-516e6c8aedc8)</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A84" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.1.1</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.1.1 System Acceptance Test[📄](./atlas/054c5639-61a8-7531-3d23-5cec7bbf2e49)</v>
+      </c>
+      <c r="G84" t="str">
+        <f ca="1"/>
+        <v>### 1.8.1 Developmental Test and Evaluation[📄](./atlas/054c5639-61a8-7531-8e02-01d6cbf81dbc)</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A85" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.1.2</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.1.2 Wind Tunnel Tests[📄](./atlas/054c5639-61a8-7531-a2e9-35ebb52b1b91)</v>
+      </c>
+      <c r="G85" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.1.1 System Acceptance Test[📄](./atlas/054c5639-61a8-7531-3d23-5cec7bbf2e49)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A86" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.1.3</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.1.3 Structural Tests[📄](./atlas/054c5639-61a8-7531-3b91-054e74d4c630)</v>
+      </c>
+      <c r="G86" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.1.2 Wind Tunnel Tests[📄](./atlas/054c5639-61a8-7531-a2e9-35ebb52b1b91)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A87" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.1.4</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.1.4 Flight Tests[📄](./atlas/054c5639-61a8-7531-b8cb-2cf60abe0a0f)</v>
+      </c>
+      <c r="G87" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.1.3 Structural Tests[📄](./atlas/054c5639-61a8-7531-3b91-054e74d4c630)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A88" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.1.5</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.1.5 Ground Tests[📄](./atlas/054c5639-61a8-7531-1c44-af90f7663b02)</v>
+      </c>
+      <c r="G88" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.1.4 Flight Tests[📄](./atlas/054c5639-61a8-7531-b8cb-2cf60abe0a0f)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A89" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.1.6</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.1.6 Cybersecurity Test and Evaluation[📄](./atlas/054c5639-61a8-7531-b351-d227105defb4)</v>
+      </c>
+      <c r="G89" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.1.5 Ground Tests[📄](./atlas/054c5639-61a8-7531-1c44-af90f7663b02)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A90" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.1.7</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.1.7 Other DT&amp;E Tests 1…n (Specify)[📄](./atlas/054c5639-61a8-7531-e78c-79964e382610)</v>
+      </c>
+      <c r="G90" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.1.6 Cybersecurity Test and Evaluation[📄](./atlas/054c5639-61a8-7531-b351-d227105defb4)</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A91" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.2</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.8.2 Operational Test and Evaluation[📄](./atlas/054c5639-61a8-7531-ae87-5c2da389e286)</v>
+      </c>
+      <c r="G91" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.1.7 Other DT&amp;E Tests 1…n (Specify)[📄](./atlas/054c5639-61a8-7531-e78c-79964e382610)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A92" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.2.1</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.2.1 Limited User Evaluation (LUE/M-LUT/FUE)[📄](./atlas/054c5639-61a8-7531-1550-98ae7124f45a)</v>
+      </c>
+      <c r="G92" t="str">
+        <f ca="1"/>
+        <v>### 1.8.2 Operational Test and Evaluation[📄](./atlas/054c5639-61a8-7531-ae87-5c2da389e286)</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A93" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.2.2</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.2.2 Interoperability Testing[📄](./atlas/054c5639-61a8-7531-1250-a48fc3c69b60)</v>
+      </c>
+      <c r="G93" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.2.1 Limited User Evaluation (LUE/M-LUT/FUE)[📄](./atlas/054c5639-61a8-7531-1550-98ae7124f45a)</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A94" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.2.3</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.2.3 Flight Tests[📄](./atlas/054c5639-61a8-7531-f5b8-c90ac32d6c4e)</v>
+      </c>
+      <c r="G94" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.2.2 Interoperability Testing[📄](./atlas/054c5639-61a8-7531-1250-a48fc3c69b60)</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A95" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.2.4</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>85</v>
+      </c>
+      <c r="E95" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.2.4 Ground Tests[📄](./atlas/054c5639-61a8-7531-84e8-97a5a838681d)</v>
+      </c>
+      <c r="G95" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.2.3 Flight Tests[📄](./atlas/054c5639-61a8-7531-f5b8-c90ac32d6c4e)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A96" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.2.5</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.2.5 Cybersecurity Test and Evaluation[📄](./atlas/054c5639-61a8-7531-d0bf-6df2f82cb9a9)</v>
+      </c>
+      <c r="G96" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.2.4 Ground Tests[📄](./atlas/054c5639-61a8-7531-84e8-97a5a838681d)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A97" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.2.6</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>91</v>
+      </c>
+      <c r="E97" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.8.2.6 Other OT&amp;E Tests 1…n (Specify)[📄](./atlas/054c5639-61a8-7531-20b9-18c16bb27933)</v>
+      </c>
+      <c r="G97" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.2.5 Cybersecurity Test and Evaluation[📄](./atlas/054c5639-61a8-7531-d0bf-6df2f82cb9a9)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A98" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.3</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.8.3 Live Fire Test and Evaluation[📄](./atlas/054c5639-61a8-7531-bb9d-e450d815291e)</v>
+      </c>
+      <c r="G98" t="str">
+        <f ca="1"/>
+        <v>#### 1.8.2.6 Other OT&amp;E Tests 1…n (Specify)[📄](./atlas/054c5639-61a8-7531-20b9-18c16bb27933)</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A99" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.4</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.8.4 Mock-ups/System Integration Labs (SILs)[📄](./atlas/054c5639-61a8-7531-c0bd-a6f7c79b4684)</v>
+      </c>
+      <c r="G99" t="str">
+        <f ca="1"/>
+        <v>### 1.8.3 Live Fire Test and Evaluation[📄](./atlas/054c5639-61a8-7531-bb9d-e450d815291e)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A100" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.5</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>94</v>
+      </c>
+      <c r="E100" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.8.5 Test and Evaluation Support[📄](./atlas/054c5639-61a8-7531-d683-88f1523eeca0)</v>
+      </c>
+      <c r="G100" t="str">
+        <f ca="1"/>
+        <v>### 1.8.4 Mock-ups/System Integration Labs (SILs)[📄](./atlas/054c5639-61a8-7531-c0bd-a6f7c79b4684)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A101" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.8.6</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>95</v>
+      </c>
+      <c r="E101" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.8.6 Test Facilities[📄](./atlas/054c5639-61a8-7531-1eec-5af13869224b)</v>
+      </c>
+      <c r="G101" t="str">
+        <f ca="1"/>
+        <v>### 1.8.5 Test and Evaluation Support[📄](./atlas/054c5639-61a8-7531-d683-88f1523eeca0)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A102" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.9</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>96</v>
+      </c>
+      <c r="E102" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.9 Training[📄](./atlas/054c5639-61a8-7531-6c74-cb6eeeafaeb9)</v>
+      </c>
+      <c r="G102" t="str">
+        <f ca="1"/>
+        <v>### 1.8.6 Test Facilities[📄](./atlas/054c5639-61a8-7531-1eec-5af13869224b)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A103" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.9.1</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>97</v>
+      </c>
+      <c r="E103" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.9.1 Equipment[📄](./atlas/054c5639-61a8-7531-5b86-0d86b02d760f)</v>
+      </c>
+      <c r="G103" t="str">
+        <f ca="1"/>
+        <v>## 1.9 Training[📄](./atlas/054c5639-61a8-7531-6c74-cb6eeeafaeb9)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A104" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.9.1.1</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>98</v>
+      </c>
+      <c r="E104" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.9.1.1 Operator Instructional Equipment[📄](./atlas/054c5639-61a8-7531-e524-850f2cb29761)</v>
+      </c>
+      <c r="G104" t="str">
+        <f ca="1"/>
+        <v>### 1.9.1 Equipment[📄](./atlas/054c5639-61a8-7531-5b86-0d86b02d760f)</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A105" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.9.1.2</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.9.1.2 Maintainer Instructional Equipment[📄](./atlas/054c5639-61a8-7531-6fc3-153b5c152587)</v>
+      </c>
+      <c r="G105" t="str">
+        <f ca="1"/>
+        <v>#### 1.9.1.1 Operator Instructional Equipment[📄](./atlas/054c5639-61a8-7531-e524-850f2cb29761)</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A106" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.9.1.3</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.9.1.3 Services[📄](./atlas/054c5639-61a8-7531-5f7c-dc923cd1d026)</v>
+      </c>
+      <c r="G106" t="str">
+        <f ca="1"/>
+        <v>#### 1.9.1.2 Maintainer Instructional Equipment[📄](./atlas/054c5639-61a8-7531-6fc3-153b5c152587)</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A107" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.9.1.4</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>101</v>
+      </c>
+      <c r="E107" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.9.1.4 Operator Instructional Services[📄](./atlas/054c5639-61a8-7531-6387-e7793c99be8d)</v>
+      </c>
+      <c r="G107" t="str">
+        <f ca="1"/>
+        <v>#### 1.9.1.3 Services[📄](./atlas/054c5639-61a8-7531-5f7c-dc923cd1d026)</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A108" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.9.1.5</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>102</v>
+      </c>
+      <c r="E108" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.9.1.5 Maintainer Instructional Services[📄](./atlas/054c5639-61a8-7531-ced9-9c535da0c05d)</v>
+      </c>
+      <c r="G108" t="str">
+        <f ca="1"/>
+        <v>#### 1.9.1.4 Operator Instructional Services[📄](./atlas/054c5639-61a8-7531-6387-e7793c99be8d)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A109" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.9.2</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>103</v>
+      </c>
+      <c r="E109" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.9.2 Facilities[📄](./atlas/054c5639-61a8-7531-99f7-3559103c97ff)</v>
+      </c>
+      <c r="G109" t="str">
+        <f ca="1"/>
+        <v>#### 1.9.1.5 Maintainer Instructional Services[📄](./atlas/054c5639-61a8-7531-ced9-9c535da0c05d)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A110" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.9.3</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.9.3 Training Software 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-5938-f13597465ca6)</v>
+      </c>
+      <c r="G110" t="str">
+        <f ca="1"/>
+        <v>### 1.9.2 Facilities[📄](./atlas/054c5639-61a8-7531-99f7-3559103c97ff)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A111" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.10</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>105</v>
+      </c>
+      <c r="E111" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.10 Data[📄](./atlas/054c5639-61a8-7531-87b5-d987b7e25974)</v>
+      </c>
+      <c r="G111" t="str">
+        <f ca="1"/>
+        <v>### 1.9.3 Training Software 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-5938-f13597465ca6)</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A112" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.10.1</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>106</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.10.1 Data Deliverables 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-a740-62104d1da6c4)</v>
+      </c>
+      <c r="G112" t="str">
+        <f ca="1"/>
+        <v>## 1.10 Data[📄](./atlas/054c5639-61a8-7531-87b5-d987b7e25974)</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A113" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.10.2</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>107</v>
+      </c>
+      <c r="E113" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.10.2 Data Repository[📄](./atlas/054c5639-61a8-7531-e1d8-40ced9ca4c20)</v>
+      </c>
+      <c r="G113" t="str">
+        <f ca="1"/>
+        <v>### 1.10.1 Data Deliverables 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-a740-62104d1da6c4)</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A114" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.10.3</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.10.3 Data Rights 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-b819-84bd70846d9e)</v>
+      </c>
+      <c r="G114" t="str">
+        <f ca="1"/>
+        <v>### 1.10.2 Data Repository[📄](./atlas/054c5639-61a8-7531-e1d8-40ced9ca4c20)</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A115" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.11</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>109</v>
+      </c>
+      <c r="E115" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.11 Peculiar Support Equipment[📄](./atlas/054c5639-61a8-7531-294d-8ccfda1f26e3)</v>
+      </c>
+      <c r="G115" t="str">
+        <f ca="1"/>
+        <v>### 1.10.3 Data Rights 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-b819-84bd70846d9e)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A116" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.11.1</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>110</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.11.1 Test and Measurement Equipment[📄](./atlas/054c5639-61a8-7531-37bc-6bf0a4f4781c)</v>
+      </c>
+      <c r="G116" t="str">
+        <f ca="1"/>
+        <v>## 1.11 Peculiar Support Equipment[📄](./atlas/054c5639-61a8-7531-294d-8ccfda1f26e3)</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A117" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.11.1.1</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.11.1.1 Test and Measurement Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-8bcc-624dd36e62bb)</v>
+      </c>
+      <c r="G117" t="str">
+        <f ca="1"/>
+        <v>### 1.11.1 Test and Measurement Equipment[📄](./atlas/054c5639-61a8-7531-37bc-6bf0a4f4781c)</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A118" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.11.1.2</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>112</v>
+      </c>
+      <c r="E118" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.11.1.2 Test and Measurement Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-145a-34de58b43e75)</v>
+      </c>
+      <c r="G118" t="str">
+        <f ca="1"/>
+        <v>#### 1.11.1.1 Test and Measurement Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-8bcc-624dd36e62bb)</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A119" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.11.1.3</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>113</v>
+      </c>
+      <c r="E119" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.11.1.3 Test and Measurement Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-cff0-6dca87e33aa0)</v>
+      </c>
+      <c r="G119" t="str">
+        <f ca="1"/>
+        <v>#### 1.11.1.2 Test and Measurement Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-145a-34de58b43e75)</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A120" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.11.1.4</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E120" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.11.1.4 Test and Measurement Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-bf13-4fa1e11fb2f2)</v>
+      </c>
+      <c r="G120" t="str">
+        <f ca="1"/>
+        <v>#### 1.11.1.3 Test and Measurement Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-cff0-6dca87e33aa0)</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A121" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.11.2</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>115</v>
+      </c>
+      <c r="E121" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.11.2 Support and Handling Equipment[📄](./atlas/054c5639-61a8-7531-740e-9a0894479cac)</v>
+      </c>
+      <c r="G121" t="str">
+        <f ca="1"/>
+        <v>#### 1.11.1.4 Test and Measurement Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-bf13-4fa1e11fb2f2)</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A122" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.11.2.1</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>116</v>
+      </c>
+      <c r="E122" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.11.2.1 Support and Handling Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-72c8-8479787d93f1)</v>
+      </c>
+      <c r="G122" t="str">
+        <f ca="1"/>
+        <v>### 1.11.2 Support and Handling Equipment[📄](./atlas/054c5639-61a8-7531-740e-9a0894479cac)</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A123" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.11.2.2</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>117</v>
+      </c>
+      <c r="E123" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.11.2.2 Support and Handling Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-0f5c-5f5a4ebba0e1)</v>
+      </c>
+      <c r="G123" t="str">
+        <f ca="1"/>
+        <v>#### 1.11.2.1 Support and Handling Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-72c8-8479787d93f1)</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A124" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.11.2.3</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>118</v>
+      </c>
+      <c r="E124" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.11.2.3 Support and Handling Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-154f-e861b649d7ae)</v>
+      </c>
+      <c r="G124" t="str">
+        <f ca="1"/>
+        <v>#### 1.11.2.2 Support and Handling Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-0f5c-5f5a4ebba0e1)</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A125" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.11.2.4</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>119</v>
+      </c>
+      <c r="E125" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.11.2.4 Support and Handling Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-18c6-5c1da1a2949a)</v>
+      </c>
+      <c r="G125" t="str">
+        <f ca="1"/>
+        <v>#### 1.11.2.3 Support and Handling Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-154f-e861b649d7ae)</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A126" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.12</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>120</v>
+      </c>
+      <c r="E126" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.12 Common Support Equipment[📄](./atlas/054c5639-61a8-7531-64b4-edc3e46681cd)</v>
+      </c>
+      <c r="G126" t="str">
+        <f ca="1"/>
+        <v>#### 1.11.2.4 Support and Handling Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-18c6-5c1da1a2949a)</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A127" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.12.1</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.12.1 Test and Measurement Equipment[📄](./atlas/054c5639-61a8-7531-6c66-68dad4acc0f0)</v>
+      </c>
+      <c r="G127" t="str">
+        <f ca="1"/>
+        <v>## 1.12 Common Support Equipment[📄](./atlas/054c5639-61a8-7531-64b4-edc3e46681cd)</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A128" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.12.1.1</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>111</v>
+      </c>
+      <c r="E128" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.12.1.1 Test and Measurement Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-4a4e-f754c7476c59)</v>
+      </c>
+      <c r="G128" t="str">
+        <f ca="1"/>
+        <v>### 1.12.1 Test and Measurement Equipment[📄](./atlas/054c5639-61a8-7531-6c66-68dad4acc0f0)</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A129" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.12.1.2</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>112</v>
+      </c>
+      <c r="E129" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.12.1.2 Test and Measurement Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-6527-b5e4894f3513)</v>
+      </c>
+      <c r="G129" t="str">
+        <f ca="1"/>
+        <v>#### 1.12.1.1 Test and Measurement Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-4a4e-f754c7476c59)</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A130" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.12.1.3</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>113</v>
+      </c>
+      <c r="E130" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.12.1.3 Test and Measurement Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-00e4-b7cca03b867f)</v>
+      </c>
+      <c r="G130" t="str">
+        <f ca="1"/>
+        <v>#### 1.12.1.2 Test and Measurement Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-6527-b5e4894f3513)</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A131" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.12.1.4</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.12.1.4 Test and Measurement Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-ff3a-322843ba42ca)</v>
+      </c>
+      <c r="G131" t="str">
+        <f ca="1"/>
+        <v>#### 1.12.1.3 Test and Measurement Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-00e4-b7cca03b867f)</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A132" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.12.2</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.12.2 Support and Handling Equipment[📄](./atlas/054c5639-61a8-7531-750f-808c425b0d91)</v>
+      </c>
+      <c r="G132" t="str">
+        <f ca="1"/>
+        <v>#### 1.12.1.4 Test and Measurement Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-ff3a-322843ba42ca)</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A133" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.12.2.1</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>116</v>
+      </c>
+      <c r="E133" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.12.2.1 Support and Handling Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-a681-75fef6258174)</v>
+      </c>
+      <c r="G133" t="str">
+        <f ca="1"/>
+        <v>### 1.12.2 Support and Handling Equipment[📄](./atlas/054c5639-61a8-7531-750f-808c425b0d91)</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A134" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.12.2.2</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>117</v>
+      </c>
+      <c r="E134" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.12.2.2 Support and Handling Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-039a-64a9518d2be7)</v>
+      </c>
+      <c r="G134" t="str">
+        <f ca="1"/>
+        <v>#### 1.12.2.1 Support and Handling Equipment (Airframe/Hull/Vehicle)[📄](./atlas/054c5639-61a8-7531-a681-75fef6258174)</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A135" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.12.2.3</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>118</v>
+      </c>
+      <c r="E135" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.12.2.3 Support and Handling Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-a94a-8435656c6b7a)</v>
+      </c>
+      <c r="G135" t="str">
+        <f ca="1"/>
+        <v>#### 1.12.2.2 Support and Handling Equipment (Propulsion)[📄](./atlas/054c5639-61a8-7531-039a-64a9518d2be7)</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A136" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.12.2.4</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>119</v>
+      </c>
+      <c r="E136" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>#### 1.12.2.4 Support and Handling Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-3d23-8c2fe745f214)</v>
+      </c>
+      <c r="G136" t="str">
+        <f ca="1"/>
+        <v>#### 1.12.2.3 Support and Handling Equipment (Electronics/Avionics)[📄](./atlas/054c5639-61a8-7531-a94a-8435656c6b7a)</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A137" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.13</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>121</v>
+      </c>
+      <c r="E137" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.13 Operational/Site Activation by Site 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-4928-3b0da3c7178c)</v>
+      </c>
+      <c r="G137" t="str">
+        <f ca="1"/>
+        <v>#### 1.12.2.4 Support and Handling Equipment (Other Major Subsystems 1...n (Specify))[📄](./atlas/054c5639-61a8-7531-3d23-8c2fe745f214)</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A138" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.13.1</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>122</v>
+      </c>
+      <c r="E138" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.13.1 System Assembly[📄](./atlas/054c5639-61a8-7531-6a7b-c7f50c3b9cb9)</v>
+      </c>
+      <c r="G138" t="str">
+        <f ca="1"/>
+        <v>## 1.13 Operational/Site Activation by Site 1...n (Specify)[📄](./atlas/054c5639-61a8-7531-4928-3b0da3c7178c)</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A139" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.13.2</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>123</v>
+      </c>
+      <c r="E139" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.13.2 Contractor Technical Support[📄](./atlas/054c5639-61a8-7531-094f-a26ca29d7bc6)</v>
+      </c>
+      <c r="G139" t="str">
+        <f ca="1"/>
+        <v>### 1.13.1 System Assembly[📄](./atlas/054c5639-61a8-7531-6a7b-c7f50c3b9cb9)</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A140" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.13.3</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.13.3 Site Construction[📄](./atlas/054c5639-61a8-7531-2b69-abb026e7962a)</v>
+      </c>
+      <c r="G140" t="str">
+        <f ca="1"/>
+        <v>### 1.13.2 Contractor Technical Support[📄](./atlas/054c5639-61a8-7531-094f-a26ca29d7bc6)</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A141" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.13.4</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>125</v>
+      </c>
+      <c r="E141" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.13.4 Site/Ship/Vehicle Conversion[📄](./atlas/054c5639-61a8-7531-f135-1c96e8ccb2c3)</v>
+      </c>
+      <c r="G141" t="str">
+        <f ca="1"/>
+        <v>### 1.13.3 Site Construction[📄](./atlas/054c5639-61a8-7531-2b69-abb026e7962a)</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A142" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.13.5</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>126</v>
+      </c>
+      <c r="E142" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.13.5 Interim Contractor Support (ICS)[📄](./atlas/054c5639-61a8-7531-581c-afcae686b62a)</v>
+      </c>
+      <c r="G142" t="str">
+        <f ca="1"/>
+        <v>### 1.13.4 Site/Ship/Vehicle Conversion[📄](./atlas/054c5639-61a8-7531-f135-1c96e8ccb2c3)</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A143" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.14</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>127</v>
+      </c>
+      <c r="E143" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.14 Contractor Logistics Support (CLS)[📄](./atlas/054c5639-61a8-7531-9511-d35e1bb3e892)</v>
+      </c>
+      <c r="G143" t="str">
+        <f ca="1"/>
+        <v>### 1.13.5 Interim Contractor Support (ICS)[📄](./atlas/054c5639-61a8-7531-581c-afcae686b62a)</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A144" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.15</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>128</v>
+      </c>
+      <c r="E144" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.15 Industrial Facilities[📄](./atlas/054c5639-61a8-7531-aca9-7b19111bc04c)</v>
+      </c>
+      <c r="G144" t="str">
+        <f ca="1"/>
+        <v>## 1.14 Contractor Logistics Support (CLS)[📄](./atlas/054c5639-61a8-7531-9511-d35e1bb3e892)</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A145" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.15.1</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>129</v>
+      </c>
+      <c r="E145" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.15.1 Construction/Conversion/Expansion[📄](./atlas/054c5639-61a8-7531-56d6-36be6e746e9b)</v>
+      </c>
+      <c r="G145" t="str">
+        <f ca="1"/>
+        <v>## 1.15 Industrial Facilities[📄](./atlas/054c5639-61a8-7531-aca9-7b19111bc04c)</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A146" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.15.2</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>130</v>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.15.2 Equipment Acquisition or Modernization[📄](./atlas/054c5639-61a8-7531-d019-cc0b74d3074f)</v>
+      </c>
+      <c r="G146" t="str">
+        <f ca="1"/>
+        <v>### 1.15.1 Construction/Conversion/Expansion[📄](./atlas/054c5639-61a8-7531-56d6-36be6e746e9b)</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A147" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.15.3</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>131</v>
+      </c>
+      <c r="E147" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>### 1.15.3 Maintenance (Industrial Facilities)[📄](./atlas/054c5639-61a8-7531-0bd9-4a4b89c593ed)</v>
+      </c>
+      <c r="G147" t="str">
+        <f ca="1"/>
+        <v>### 1.15.2 Equipment Acquisition or Modernization[📄](./atlas/054c5639-61a8-7531-d019-cc0b74d3074f)</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A148" s="3" t="str">
+        <f ca="1">IF(wbsToMarkmap[[#This Row],[level]]="","",IF(wbsToMarkmap[[#This Row],[level]]&gt;OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),IF(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",wbsToMarkmap[[#This Row],[level]]-MAX(OFFSET(wbsToMarkmap[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",wbsToMarkmap[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(wbsToMarkmap[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".","^",wbsToMarkmap[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))),(wbsToMarkmap[[#This Row],[level]]-1)*LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(wbsToMarkmap[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
+        <v>1.16</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>132</v>
+      </c>
+      <c r="E148" s="4" t="str">
+        <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;"/"&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
+        <v>## 1.16 Initial Spares and Repair Parts[📄](./atlas/054c5639-61a8-7531-2367-bf9dd882282d)</v>
+      </c>
+      <c r="G148" t="str">
+        <f ca="1"/>
+        <v>### 1.15.3 Maintenance (Industrial Facilities)[📄](./atlas/054c5639-61a8-7531-0bd9-4a4b89c593ed)</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="G149" t="str">
+        <f ca="1"/>
+        <v>## 1.16 Initial Spares and Repair Parts[📄](./atlas/054c5639-61a8-7531-2367-bf9dd882282d)</v>
       </c>
     </row>
   </sheetData>
@@ -5020,10 +8090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55100CD4-3265-4A40-8788-47AAFBE8FEDB}">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5031,7 +8101,7 @@
     <col min="3" max="3" width="59.5859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5042,7 +8112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1</v>
@@ -5051,10 +8121,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1398</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.1</v>
@@ -5063,10 +8136,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2</v>
@@ -5075,10 +8148,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2.1</v>
@@ -5087,10 +8160,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2.2</v>
@@ -5099,10 +8172,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2.2.1</v>
@@ -5111,10 +8184,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2.2.2</v>
@@ -5123,10 +8196,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2.2.3</v>
@@ -5135,10 +8208,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2.2.4</v>
@@ -5147,10 +8220,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2.2.5</v>
@@ -5159,10 +8232,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2.2.6</v>
@@ -5171,10 +8244,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2.3</v>
@@ -5183,10 +8256,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2.4</v>
@@ -5195,10 +8268,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2.4.1</v>
@@ -5207,10 +8280,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="str">
         <f ca="1">IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</f>
         <v>1.2.4.2</v>
@@ -5219,7 +8292,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
@@ -5231,7 +8304,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -5243,7 +8316,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
@@ -5255,7 +8328,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
@@ -5267,7 +8340,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
@@ -5279,7 +8352,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
@@ -5291,7 +8364,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
@@ -5303,7 +8376,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
@@ -5315,7 +8388,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
@@ -5327,7 +8400,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -5339,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
@@ -5351,7 +8424,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
@@ -5363,7 +8436,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
@@ -5375,7 +8448,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
@@ -5387,7 +8460,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
@@ -5399,7 +8472,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
@@ -5411,7 +8484,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
@@ -5423,7 +8496,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
@@ -5435,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
@@ -5447,7 +8520,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
@@ -5459,7 +8532,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.5">
@@ -5471,7 +8544,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
@@ -5483,7 +8556,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
@@ -5495,7 +8568,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
@@ -5507,7 +8580,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
@@ -5519,7 +8592,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
@@ -5531,7 +8604,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
@@ -5543,7 +8616,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
@@ -5555,7 +8628,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
@@ -5567,7 +8640,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
@@ -5579,7 +8652,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
@@ -5591,7 +8664,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
@@ -5603,7 +8676,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
@@ -5615,7 +8688,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
@@ -5627,7 +8700,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
@@ -5639,7 +8712,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.5">
@@ -5651,7 +8724,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.5">
@@ -5663,7 +8736,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
@@ -5675,7 +8748,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
@@ -5687,7 +8760,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
@@ -5699,7 +8772,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.5">
@@ -5711,7 +8784,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
@@ -5723,7 +8796,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.5">
@@ -5735,7 +8808,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.5">
@@ -5747,7 +8820,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.5">
@@ -5759,7 +8832,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.5">
@@ -5771,7 +8844,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.5">
@@ -5783,7 +8856,7 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.5">
@@ -5795,7 +8868,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.5">
@@ -5807,7 +8880,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.5">
@@ -5819,7 +8892,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.5">
@@ -5831,7 +8904,7 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.5">
@@ -5843,7 +8916,7 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.5">
@@ -5855,7 +8928,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.5">
@@ -5867,7 +8940,7 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.5">
@@ -5879,7 +8952,7 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.5">
@@ -5891,7 +8964,7 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.5">
@@ -5903,7 +8976,7 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.5">
@@ -5915,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.5">
@@ -5927,7 +9000,7 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.5">
@@ -5939,7 +9012,7 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.5">
@@ -5951,7 +9024,7 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.5">
@@ -5963,7 +9036,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.5">
@@ -5975,7 +9048,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.5">
@@ -5987,7 +9060,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.5">
@@ -5999,7 +9072,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.5">
@@ -6011,7 +9084,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.5">
@@ -6023,7 +9096,7 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.5">
@@ -6035,7 +9108,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.5">
@@ -6047,7 +9120,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.5">
@@ -6059,7 +9132,7 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.5">
@@ -6071,7 +9144,7 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.5">
@@ -6083,7 +9156,7 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.5">
@@ -6095,7 +9168,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>90</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.5">
@@ -6107,7 +9180,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.5">
@@ -6119,7 +9192,7 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>85</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.5">
@@ -6131,7 +9204,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.5">
@@ -6143,7 +9216,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.5">
@@ -6155,7 +9228,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>92</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.5">
@@ -6167,7 +9240,7 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>93</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.5">
@@ -6179,7 +9252,7 @@
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>94</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.5">
@@ -6191,7 +9264,7 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>95</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.5">
@@ -6203,7 +9276,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>96</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.5">
@@ -6215,7 +9288,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.5">
@@ -6227,7 +9300,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>98</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.5">
@@ -6239,7 +9312,7 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>99</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.5">
@@ -6251,7 +9324,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>100</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.5">
@@ -6263,7 +9336,7 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>101</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.5">
@@ -6275,7 +9348,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>102</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.5">
@@ -6287,7 +9360,7 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>103</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.5">
@@ -6299,7 +9372,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>104</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.5">
@@ -6311,7 +9384,7 @@
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>105</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.5">
@@ -6323,7 +9396,7 @@
         <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>106</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.5">
@@ -6335,7 +9408,7 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>107</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.5">
@@ -6347,7 +9420,7 @@
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>108</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.5">
@@ -6359,7 +9432,7 @@
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.5">
@@ -6371,7 +9444,7 @@
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>110</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.5">
@@ -6383,7 +9456,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.5">
@@ -6395,7 +9468,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>112</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.5">
@@ -6407,7 +9480,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>113</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.5">
@@ -6419,7 +9492,7 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>114</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.5">
@@ -6431,7 +9504,7 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>115</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.5">
@@ -6443,7 +9516,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>116</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.5">
@@ -6455,7 +9528,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>117</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.5">
@@ -6467,7 +9540,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>118</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.5">
@@ -6479,7 +9552,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>119</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.5">
@@ -6491,7 +9564,7 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>120</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.5">
@@ -6503,7 +9576,7 @@
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>110</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.5">
@@ -6515,7 +9588,7 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>111</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.5">
@@ -6527,7 +9600,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>112</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.5">
@@ -6539,7 +9612,7 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>113</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.5">
@@ -6551,7 +9624,7 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>114</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.5">
@@ -6563,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>115</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.5">
@@ -6575,7 +9648,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>116</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.5">
@@ -6587,7 +9660,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>117</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.5">
@@ -6599,7 +9672,7 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>118</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.5">
@@ -6611,7 +9684,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>119</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.5">
@@ -6623,7 +9696,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>121</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.5">
@@ -6635,7 +9708,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>122</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.5">
@@ -6647,7 +9720,7 @@
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>123</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.5">
@@ -6659,7 +9732,7 @@
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>124</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.5">
@@ -6671,7 +9744,7 @@
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>125</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.5">
@@ -6683,7 +9756,7 @@
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>126</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.5">
@@ -6695,7 +9768,7 @@
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>127</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.5">
@@ -6707,7 +9780,7 @@
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>128</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.5">
@@ -6719,7 +9792,7 @@
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>129</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.5">
@@ -6731,7 +9804,7 @@
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>130</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.5">
@@ -6743,7 +9816,7 @@
         <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>131</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.5">
@@ -6755,7 +9828,7 @@
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>132</v>
+        <v>1527</v>
       </c>
     </row>
   </sheetData>
@@ -6770,7 +9843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FEA394-7EB3-4E0B-9648-BAE69BFC2A24}">
   <dimension ref="A1:C2316"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C144"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -36891,6 +39966,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100362E5F718929694AB139DE2736475A59" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="36a92d4101235db337d1a43c28c65a96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b406bd9a-cde6-4834-9a67-0c60db9abeed" xmlns:ns3="b903bf0f-c6a5-4cb2-b1ec-bd1051193607" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04b1be96996d7e4f2bfe898edc4afd8c" ns2:_="" ns3:_="">
     <xsd:import namespace="b406bd9a-cde6-4834-9a67-0c60db9abeed"/>
@@ -37085,15 +40169,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -37106,6 +40181,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAFCB168-A783-47B0-B0EC-C36B4EAF5194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AEA06FB-6EBE-414C-8845-4595427FC799}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37120,14 +40203,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAFCB168-A783-47B0-B0EC-C36B4EAF5194}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
